--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyg51\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC489CA0-54A2-4B30-BA8D-CDEF7831B3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{7A65E3E5-D35B-43C1-9B5E-17B72B0CF15C}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기능명세서!$A$2:$J$25</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QnA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카테고리 분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,18 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>설문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA 비회원 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설문 통계 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,15 +227,67 @@
   </si>
   <si>
     <t>popup및 간단한 js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 및 비회원 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 분류(지유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 분류(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 게시판(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원 정보 관리(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log(지유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 및 데이터 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적인 화면 점검(지유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적인 기능 점검(지유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML 및 CSS 점검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -317,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -341,43 +376,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -392,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,18 +404,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -426,33 +412,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,42 +755,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6C5C9F-671E-483F-B4EF-CC8A58C5E24C}">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.6640625" style="10"/>
-    <col min="10" max="10" width="40.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.6640625" style="10"/>
+    <col min="1" max="1" width="22.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.625" style="6"/>
+    <col min="10" max="10" width="40.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="14" customFormat="1" ht="44">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="45">
+      <c r="A1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="35" customHeight="1">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="35.1" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,8 +806,8 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>28</v>
+      <c r="F2" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -831,472 +823,520 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="8">
+        <v>44733</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="8">
+        <v>44736</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="8">
+        <v>44733</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="8">
+        <v>44734</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="8">
+        <v>44735</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="9">
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="12">
-        <v>44733</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="8">
+        <v>44737</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8">
+        <v>44740</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8">
+        <v>44742</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="8">
+        <v>44737</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="8">
+        <v>44738</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="12">
-        <v>44736</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="18" t="s">
+      <c r="B13" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="12">
-        <v>44733</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="12">
-        <v>44734</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="12">
-        <v>44735</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="12">
-        <v>44737</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="12">
-        <v>44738</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="9">
-        <v>4</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="12">
-        <v>44740</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="12">
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8">
+        <v>44742</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8">
+        <v>44742</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8">
+        <v>44742</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8">
+        <v>44742</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8">
+        <v>44742</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8">
+        <v>44742</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8">
+        <v>44742</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8">
+        <v>44743</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8">
         <v>44744</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="18" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8">
+        <v>44745</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8">
+        <v>44744</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8">
+        <v>44745</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="13"/>
+      <c r="B25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="12">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8">
         <v>44746</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="12">
-        <v>44748</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="12">
-        <v>44748</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="12">
-        <v>44748</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="12">
-        <v>44748</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="12">
-        <v>44748</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="12">
-        <v>44748</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="12">
-        <v>44748</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="12">
-        <v>44748</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="12">
-        <v>44749</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="12">
-        <v>44749</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="12">
-        <v>44750</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="6"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="12">
-        <v>44750</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="12">
-        <v>44751</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="8"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8">
+        <v>44746</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="13"/>
+      <c r="B27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8">
+        <v>44746</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J25" xr:uid="{ED6C5C9F-671E-483F-B4EF-CC8A58C5E24C}"/>
-  <mergeCells count="12">
+  <autoFilter ref="A2:J25"/>
+  <mergeCells count="14">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B8:B12"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B13:B20"/>
     <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyg51\Desktop\car_accident\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86AF95-2B14-465F-99EB-ED8605BA4C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -22,16 +23,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -285,7 +276,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
@@ -390,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,9 +389,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -424,13 +412,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -439,12 +427,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -755,42 +749,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.625" style="6"/>
-    <col min="10" max="10" width="40.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="6"/>
+    <col min="1" max="1" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.58203125" style="5"/>
+    <col min="10" max="10" width="40.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.58203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" ht="45">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="44">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="35.1" customHeight="1">
+    <row r="2" spans="1:10" ht="35.15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,10 +797,10 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -818,510 +812,514 @@
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="8">
+      <c r="E3" s="15"/>
+      <c r="F3" s="7">
         <v>44733</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="8">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="7">
         <v>44736</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="12" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="8">
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
         <v>44733</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
+      <c r="G5" s="7">
+        <v>44733</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="8">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="7">
         <v>44734</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="8">
+      <c r="E7" s="15"/>
+      <c r="F7" s="7">
         <v>44735</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="8">
+      <c r="E8" s="15"/>
+      <c r="F8" s="7">
         <v>44737</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="12" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8">
+      <c r="E9" s="15"/>
+      <c r="F9" s="7">
         <v>44740</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="12" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="8">
+      <c r="E10" s="15"/>
+      <c r="F10" s="7">
         <v>44742</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="12" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="8">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="7">
         <v>44737</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="8">
+      <c r="E12" s="15"/>
+      <c r="F12" s="7">
         <v>44738</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="12" t="s">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="7">
         <v>44742</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="8">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="7">
         <v>44742</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="8">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="7">
         <v>44742</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="8">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="7">
         <v>44742</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="8">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="7">
         <v>44742</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="8">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="7">
         <v>44742</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="8">
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="7">
         <v>44742</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="8">
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="7">
         <v>44743</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="8">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="7">
         <v>44744</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="8">
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="7">
         <v>44745</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="8">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="7">
         <v>44744</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="8">
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="7">
         <v>44745</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="13"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="8">
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="7">
         <v>44746</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="8">
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="7">
         <v>44746</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="13"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="8">
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="7">
         <v>44746</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J25"/>
+  <autoFilter ref="A2:J25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="14">
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A1:D1"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyg51\Desktop\car_accident\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F86AF95-2B14-465F-99EB-ED8605BA4C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C5171E-6283-4694-A053-0CEFC2839DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,6 +418,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,15 +434,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,7 +753,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -762,7 +762,7 @@
     <col min="2" max="2" width="22" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.25" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="8.58203125" style="5"/>
     <col min="10" max="10" width="40.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -770,16 +770,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="44">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="14"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -817,7 +817,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -829,7 +829,7 @@
       <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="7">
         <v>44733</v>
       </c>
@@ -839,7 +839,7 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="7">
         <v>44736</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -873,7 +873,7 @@
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>1</v>
       </c>
       <c r="F5" s="7">
@@ -887,8 +887,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -897,25 +897,29 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
       <c r="F6" s="7">
         <v>44734</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="7">
+        <v>44734</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="7">
         <v>44735</v>
       </c>
@@ -925,19 +929,19 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="4">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="12"/>
       <c r="F8" s="7">
         <v>44737</v>
       </c>
@@ -949,17 +953,17 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="7">
-        <v>44740</v>
+        <v>44739</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -969,15 +973,15 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="7">
         <v>44742</v>
       </c>
@@ -989,8 +993,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -999,7 +1003,7 @@
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="7">
         <v>44737</v>
       </c>
@@ -1009,15 +1013,15 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="7">
         <v>44738</v>
       </c>
@@ -1029,10 +1033,10 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1041,7 +1045,7 @@
       <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="7">
         <v>44742</v>
       </c>
@@ -1051,15 +1055,15 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="12"/>
       <c r="F14" s="7">
         <v>44742</v>
       </c>
@@ -1069,15 +1073,15 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="7">
         <v>44742</v>
       </c>
@@ -1087,15 +1091,15 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="7">
         <v>44742</v>
       </c>
@@ -1105,15 +1109,15 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="12"/>
       <c r="F17" s="7">
         <v>44742</v>
       </c>
@@ -1123,15 +1127,15 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="12"/>
       <c r="F18" s="7">
         <v>44742</v>
       </c>
@@ -1141,15 +1145,15 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" s="15"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="7">
         <v>44742</v>
       </c>
@@ -1159,7 +1163,7 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="12"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="11" t="s">
         <v>52</v>
       </c>
@@ -1169,7 +1173,7 @@
       <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="12"/>
       <c r="F20" s="7">
         <v>44743</v>
       </c>
@@ -1179,10 +1183,10 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1191,7 +1195,7 @@
       <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="12"/>
       <c r="F21" s="7">
         <v>44744</v>
       </c>
@@ -1201,15 +1205,15 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="12"/>
       <c r="F22" s="7">
         <v>44745</v>
       </c>
@@ -1219,8 +1223,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1229,7 +1233,7 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="15"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="7">
         <v>44744</v>
       </c>
@@ -1239,15 +1243,15 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="7">
         <v>44745</v>
       </c>
@@ -1257,7 +1261,7 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="12"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
@@ -1267,7 +1271,7 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="7">
         <v>44746</v>
       </c>
@@ -1277,7 +1281,7 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1289,7 +1293,7 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="12"/>
       <c r="F26" s="7">
         <v>44746</v>
       </c>
@@ -1299,7 +1303,7 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="12"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
@@ -1309,7 +1313,7 @@
       <c r="D27" s="4">
         <v>1</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="7">
         <v>44746</v>
       </c>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyg51\Desktop\car_accident\VIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C5171E-6283-4694-A053-0CEFC2839DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
+    <sheet name="issue" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기능명세서!$A$2:$J$25</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,17 +270,77 @@
   </si>
   <si>
     <t>HTML 및 CSS 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git 협업툴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결방안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가기능 issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 검색기능 및 사고건수, 사망자, 부상자 몇 명 이상의 건수 조회 검색기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import시 git이 아닌 gradle로 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +379,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -381,7 +449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,6 +495,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -436,9 +528,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -749,42 +844,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.25" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.58203125" style="5"/>
-    <col min="10" max="10" width="40.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.58203125" style="5"/>
+    <col min="7" max="9" width="8.625" style="5"/>
+    <col min="10" max="10" width="40.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="44">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
+      <c r="A1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="35.15" customHeight="1">
+    <row r="2" spans="1:10" ht="35.1" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +912,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -839,7 +934,7 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="15"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -861,7 +956,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -887,8 +982,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -911,8 +1006,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
@@ -929,10 +1024,10 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -953,8 +1048,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -973,8 +1068,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
@@ -993,8 +1088,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1013,8 +1108,8 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1033,10 +1128,10 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1055,8 +1150,8 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1073,8 +1168,8 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1091,8 +1186,8 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1204,8 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1127,8 +1222,8 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1145,8 +1240,8 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1258,7 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="11" t="s">
         <v>52</v>
       </c>
@@ -1183,10 +1278,10 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="23" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1205,8 +1300,8 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1223,8 +1318,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1243,8 +1338,8 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1261,7 +1356,7 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="15"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
@@ -1281,7 +1376,7 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1303,7 +1398,7 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="15"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
@@ -1323,7 +1418,7 @@
       <c r="J27" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:J25"/>
   <mergeCells count="14">
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A1:D1"/>
@@ -1343,4 +1438,114 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="80.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45">
+      <c r="A1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="21">
+        <v>44735</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="21">
+        <v>44735</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="22"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="21">
+        <v>44735</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,10 @@
   </si>
   <si>
     <t>import시 git이 아닌 gradle로 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone&amp;pull&amp;push 해결, 정상 작동 / 추후 eclipse 작업 시 pull, push 전 확인필요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1445,7 +1449,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1516,7 +1520,9 @@
       <c r="G3" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="20">

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -329,11 +329,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>import시 git이 아닌 gradle로 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git clone&amp;pull&amp;push 해결, 정상 작동 / 추후 eclipse 작업 시 pull, push 전 확인필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro-service 프로젝트 마지막에 추가예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +522,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -851,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -863,22 +866,23 @@
     <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="20.875" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.625" style="5"/>
+    <col min="7" max="7" width="8.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.625" style="5"/>
     <col min="10" max="10" width="40.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="25"/>
+      <c r="F1" s="26"/>
       <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
@@ -916,7 +920,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -928,17 +932,23 @@
       <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="23">
+        <v>3</v>
+      </c>
       <c r="F3" s="7">
         <v>44733</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="7">
+        <v>44735</v>
+      </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
+      <c r="J3" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>44</v>
       </c>
@@ -960,7 +970,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -986,8 +996,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1010,8 +1020,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1028,10 +1038,10 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1052,8 +1062,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1072,8 +1082,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1092,8 +1102,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1112,8 +1122,8 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1132,10 +1142,10 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1154,8 +1164,8 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1172,8 +1182,8 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1190,8 +1200,8 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1208,8 +1218,8 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1236,8 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1244,8 +1254,8 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1262,7 +1272,7 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="23"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="11" t="s">
         <v>52</v>
       </c>
@@ -1282,10 +1292,10 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1304,8 +1314,8 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1322,8 +1332,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1342,8 +1352,8 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1360,7 +1370,7 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="23"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
@@ -1380,7 +1390,7 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -1402,7 +1412,7 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="23"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
@@ -1449,7 +1459,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1465,14 +1475,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="17"/>
@@ -1514,14 +1524,10 @@
       <c r="E3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="21">
-        <v>44735</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
         <v>75</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8">

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,10 @@
   </si>
   <si>
     <t>intro-service 프로젝트 마지막에 추가예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAS-DB AWS RDS인스턴스에 저장 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1028,14 +1032,20 @@
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
       <c r="F7" s="7">
         <v>44735</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="7">
+        <v>44735</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="24" t="s">
@@ -1458,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비회원 정보 관리(정수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Log(지유)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전반적인 기능 점검(지유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HTML 및 CSS 점검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,6 +330,30 @@
   </si>
   <si>
     <t>TAS-DB AWS RDS인스턴스에 저장 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service-center.html, main.html, manager-main.html 에 보여지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개글 -&gt; 버튼숨김 / 비공개글 -&gt; 비밀번호입력 -&gt; 글확인&amp;수정버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개글 -&gt; 버튼숨김 / 비공개글 -&gt; 비밀번호입력 -&gt; 글확인&amp;삭제버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-27 정수 예비군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적인 기능 점검(정수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,8 +434,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -451,13 +485,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,9 +562,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -533,6 +601,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -540,6 +611,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,6 +643,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFF3E5FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -856,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -868,11 +969,11 @@
     <col min="2" max="2" width="22" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.25" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.625" style="5"/>
-    <col min="10" max="10" width="40.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="60.25" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
@@ -904,7 +1005,7 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -927,7 +1028,7 @@
       <c r="A3" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="28" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -936,7 +1037,7 @@
       <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>3</v>
       </c>
       <c r="F3" s="7">
@@ -948,12 +1049,12 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="24"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -962,7 +1063,7 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="7">
         <v>44736</v>
       </c>
@@ -977,7 +1078,7 @@
       <c r="A5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -986,7 +1087,7 @@
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="7">
@@ -1001,7 +1102,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="24"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1010,7 +1111,7 @@
       <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="7">
@@ -1025,14 +1126,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="7">
@@ -1044,14 +1145,14 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1060,9 +1161,9 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="11"/>
       <c r="F8" s="7">
-        <v>44737</v>
+        <v>44739</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1073,16 +1174,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="7">
-        <v>44739</v>
+        <v>44737</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1093,16 +1194,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="7">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1113,7 +1214,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="24"/>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1122,9 +1223,9 @@
       <c r="D11" s="4">
         <v>1</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="7">
-        <v>44737</v>
+        <v>44740</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1133,16 +1234,16 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="7">
-        <v>44738</v>
+        <v>44741</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1155,54 +1256,58 @@
       <c r="A13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="32" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="7">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="7">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="10" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="7">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1211,34 +1316,36 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="7">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="11"/>
       <c r="F17" s="7">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1247,16 +1354,16 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="11"/>
       <c r="F18" s="7">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1265,16 +1372,16 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="11"/>
       <c r="F19" s="7">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1283,18 +1390,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="24"/>
-      <c r="B20" s="11" t="s">
-        <v>52</v>
-      </c>
+      <c r="B20" s="34"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="7">
-        <v>44743</v>
+        <v>44735</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1305,18 +1410,18 @@
       <c r="A21" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>54</v>
+      <c r="B21" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="11"/>
       <c r="F21" s="7">
-        <v>44744</v>
+        <v>44737</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1325,16 +1430,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="11"/>
       <c r="F22" s="7">
-        <v>44745</v>
+        <v>44737</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1343,8 +1448,8 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="24"/>
-      <c r="B23" s="24" t="s">
-        <v>53</v>
+      <c r="B23" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
@@ -1352,9 +1457,9 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="7">
-        <v>44744</v>
+        <v>44743</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1363,16 +1468,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="7">
-        <v>44745</v>
+        <v>44744</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1381,8 +1486,8 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="24"/>
-      <c r="B25" s="4" t="s">
-        <v>55</v>
+      <c r="B25" s="30" t="s">
+        <v>54</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>37</v>
@@ -1390,9 +1495,9 @@
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="7">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1401,18 +1506,18 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="7">
         <v>44746</v>
       </c>
@@ -1423,23 +1528,33 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="24"/>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="7">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="23" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:J25"/>
@@ -1447,7 +1562,6 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B13:B19"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B21:B22"/>
@@ -1458,9 +1572,11 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1474,19 +1590,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
       <c r="A1" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -1495,71 +1611,71 @@
       <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="20">
+        <v>44735</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="19" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="20">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="D4" s="20">
+        <v>44735</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="D3" s="21">
-        <v>44735</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="20">
-        <v>2</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="21">
-        <v>44735</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -354,6 +354,22 @@
   </si>
   <si>
     <t>전반적인 기능 점검(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configure Fatch 수정을 통한 push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[rejected non fast forward] Error가 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃허브 권한문제 해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +544,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,6 +617,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,32 +635,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,7 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -978,16 +1000,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="26"/>
+      <c r="F1" s="29"/>
       <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
@@ -1025,10 +1047,10 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1053,8 +1075,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="24"/>
-      <c r="B4" s="28" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1075,10 +1097,10 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="25" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1101,8 +1123,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="24"/>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1125,8 +1147,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="24"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1149,10 +1171,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1173,8 +1195,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="24"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1193,8 +1215,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="24"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1213,8 +1235,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="24"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="30" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1233,8 +1255,8 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="24"/>
-      <c r="B12" s="31"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1253,7 +1275,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="27" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -1277,7 +1299,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="33"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -1297,7 +1319,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="33"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1315,7 +1337,7 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="33"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
@@ -1335,7 +1357,7 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="24"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="33"/>
       <c r="C17" s="3" t="s">
         <v>16</v>
@@ -1353,7 +1375,7 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="33"/>
       <c r="C18" s="3" t="s">
         <v>25</v>
@@ -1371,7 +1393,7 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="33"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
@@ -1389,7 +1411,7 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="24"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="34"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
@@ -1407,10 +1429,10 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1429,8 +1451,8 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="24"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1447,8 +1469,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="24"/>
-      <c r="B23" s="29" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1467,8 +1489,8 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="24"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1485,8 +1507,8 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="24"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1505,10 +1527,10 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="25" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -1527,8 +1549,8 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="24"/>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="24" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -1547,7 +1569,7 @@
       <c r="J27" s="4"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="26" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1582,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1601,14 +1623,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="16"/>
@@ -1650,8 +1672,12 @@
       <c r="E3" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="F3" s="20">
+        <v>44735</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="H3" s="21" t="s">
         <v>73</v>
       </c>
@@ -1676,6 +1702,32 @@
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="20">
+        <v>44735</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="20">
+        <v>44735</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -626,38 +626,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1000,16 +1000,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="31"/>
       <c r="G1" s="9" t="s">
         <v>42</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -1075,7 +1075,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="24" t="s">
         <v>44</v>
       </c>
@@ -1097,7 +1097,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -1123,8 +1123,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="27"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1147,8 +1147,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
@@ -1171,10 +1171,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1195,8 +1195,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="27"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1215,8 +1215,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="27"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1235,8 +1235,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="27"/>
-      <c r="B11" s="30" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="32" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1255,8 +1255,8 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="27"/>
-      <c r="B12" s="30"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1275,10 +1275,10 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="34" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1299,8 +1299,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="27"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1319,26 +1319,30 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="27"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
       <c r="F15" s="7">
         <v>44735</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="7">
+        <v>44735</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="27"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1357,8 +1361,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="27"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1375,8 +1379,8 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="27"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1397,8 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="27"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
@@ -1411,8 +1415,8 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="27"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
@@ -1429,10 +1433,10 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1451,8 +1455,8 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="27"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1469,8 +1473,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="27"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1489,8 +1493,8 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="27"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1507,7 +1511,7 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="25" t="s">
         <v>54</v>
       </c>
@@ -1527,7 +1531,7 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="29" t="s">
         <v>55</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -1549,7 +1553,7 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="24" t="s">
         <v>57</v>
       </c>
@@ -1606,7 +1610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1623,14 +1627,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="16"/>
@@ -1723,10 +1727,10 @@
       <c r="F5" s="20">
         <v>44735</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="28" t="s">
         <v>84</v>
       </c>
     </row>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
     <sheet name="issue" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기능명세서!$A$2:$J$25</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,263 +114,514 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>통계 포털</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 셀렉트박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 선택한 메뉴 엑셀다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 조회수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 예정일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.06.21~2022.07.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>front (지유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료조사 및 정리 (정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel &gt; DB insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side-nav 카테고리 분류(필 : 지역별)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data handling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 메인화면 통계 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객이 원하는 정보 선택 &gt; 맞춰서 화면 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문 통계 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 메인화면 지도 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 메인화면 그래프 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 교통사고 현황 지도 API에 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 R 또는 JS그래프 구현(미정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 21일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML &amp; CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML 및 CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax연결 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup및 간단한 js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 분류(지유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 분류(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 게시판(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log(지유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러 및 데이터 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적인 화면 점검(지유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML 및 CSS 점검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git 협업툴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결방안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가기능 issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>error issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 검색기능 및 사고건수, 사망자, 부상자 몇 명 이상의 건수 조회 검색기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone&amp;pull&amp;push 해결, 정상 작동 / 추후 eclipse 작업 시 pull, push 전 확인필요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro-service 프로젝트 마지막에 추가예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAS-DB AWS RDS인스턴스에 저장 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service-center.html, main.html, manager-main.html 에 보여지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개글 -&gt; 버튼숨김 / 비공개글 -&gt; 비밀번호입력 -&gt; 글확인&amp;수정버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개글 -&gt; 버튼숨김 / 비공개글 -&gt; 비밀번호입력 -&gt; 글확인&amp;삭제버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-27 정수 예비군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적인 기능 점검(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configure Fatch 수정을 통한 push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[rejected non fast forward] Error가 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깃허브 권한문제 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2일</t>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행율
+(%)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>산출물</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>10일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 설계</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 분석</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 분석</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">설계 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 설계</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 정의</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 설계</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능별 DB Table 정의</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 및 배포</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 및 배포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 기능 테스트</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>배포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능명세서, 개발일정 시안</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>교통사고 통계 포털 기능명세서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통계 포털</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별 셀렉트박스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별 선택한 메뉴 엑셀다운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA 조회수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발 예정일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.06.21~2022.07.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>front (지유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자료조사 및 정리 (정수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excel &gt; DB insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>side-nav 카테고리 분류(필 : 지역별)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data handling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AWS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별 메인화면 통계 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객이 원하는 정보 선택 &gt; 맞춰서 화면 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문 통계 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별 메인화면 지도 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별 메인화면 그래프 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역별 교통사고 현황 지도 API에 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별 R 또는 JS그래프 구현(미정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 21일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML &amp; CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS</t>
+    <t>교통사고 통계 포털 개발 일정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>교통사고 통계 포털</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>21일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>22일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>23일</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>24일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">25일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HTML 및 CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ajax연결 포함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>popup및 간단한 js</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터 및 비회원 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 분류(지유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리 분류(정수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터 게시판(정수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Log(지유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA(정수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설문(정수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이지 점검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에러 및 데이터 점검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전반적인 화면 점검(지유)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML 및 CSS 점검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">git 협업툴 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발생일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결방안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>issue관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>issue내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가기능 issue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>error issue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색기능 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터 검색기능 및 사고건수, 사망자, 부상자 몇 명 이상의 건수 조회 검색기능 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>git clone&amp;pull&amp;push 해결, 정상 작동 / 추후 eclipse 작업 시 pull, push 전 확인필요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro-service 프로젝트 마지막에 추가예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAS-DB AWS RDS인스턴스에 저장 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service-center.html, main.html, manager-main.html 에 보여지기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공개글 -&gt; 버튼숨김 / 비공개글 -&gt; 비밀번호입력 -&gt; 글확인&amp;수정버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공개글 -&gt; 버튼숨김 / 비공개글 -&gt; 비밀번호입력 -&gt; 글확인&amp;삭제버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특이사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-06-27 정수 예비군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전반적인 기능 점검(정수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Configure Fatch 수정을 통한 push</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[rejected non fast forward] Error가 발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>깃허브 권한문제 해결</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log 조회 기능구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문조사 기능구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 답변 작성 기능구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA CRUD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,10 +629,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="186" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,8 +685,106 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9" tint="0.59999389629810485"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,8 +821,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -538,13 +933,283 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="10" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,9 +1324,179 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="10" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="10" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="10" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="10" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="16" fillId="10" borderId="22" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="_CCNSVL-1-PIX515-SI_122311" xfId="2"/>
+    <cellStyle name="_CCNSVL-1-PIX515-SI_122312" xfId="3"/>
+    <cellStyle name="스타일 1" xfId="4"/>
+    <cellStyle name="콤마 [0]_7000 FEIP 2" xfId="5"/>
+    <cellStyle name="콤마_7000 FEIP 2" xfId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2 2" xfId="7"/>
+    <cellStyle name="표준 9" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -680,6 +1515,79 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>375582</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6470650" y="450851"/>
+          <a:ext cx="634999" cy="324781"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -22348"/>
+            <a:gd name="adj2" fmla="val 86255"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>현재</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -981,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1001,17 +1909,17 @@
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
       <c r="A1" s="30" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
       <c r="E1" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="31"/>
       <c r="G1" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="35.1" customHeight="1">
@@ -1031,7 +1939,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -1048,13 +1956,13 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4">
         <v>3</v>
@@ -1071,16 +1979,16 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="29"/>
       <c r="B4" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -1093,18 +2001,18 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -1125,10 +2033,10 @@
     <row r="6" spans="1:10">
       <c r="A6" s="29"/>
       <c r="B6" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -1150,7 +2058,7 @@
       <c r="A7" s="29"/>
       <c r="B7" s="32"/>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -1167,18 +2075,18 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -1191,14 +2099,14 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="29"/>
       <c r="B9" s="33"/>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -1211,14 +2119,14 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="29"/>
       <c r="B10" s="33"/>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -1231,16 +2139,16 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="29"/>
       <c r="B11" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -1258,7 +2166,7 @@
       <c r="A12" s="29"/>
       <c r="B12" s="32"/>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4">
         <v>4</v>
@@ -1271,15 +2179,15 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="29" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -1287,15 +2195,19 @@
       <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
       <c r="F13" s="7">
         <v>44735</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="7">
+        <v>44736</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1315,7 +2227,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1357,7 +2269,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1382,7 +2294,7 @@
       <c r="A18" s="29"/>
       <c r="B18" s="35"/>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -1437,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>17</v>
@@ -1475,7 +2387,7 @@
     <row r="23" spans="1:10">
       <c r="A23" s="29"/>
       <c r="B23" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
@@ -1513,10 +2425,10 @@
     <row r="25" spans="1:10">
       <c r="A25" s="29"/>
       <c r="B25" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -1532,13 +2444,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1555,10 +2467,10 @@
     <row r="27" spans="1:10">
       <c r="A27" s="29"/>
       <c r="B27" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1574,12 +2486,12 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +2523,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1628,7 +2540,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45">
       <c r="A1" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1639,25 +2551,25 @@
     <row r="2" spans="1:8">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>62</v>
-      </c>
       <c r="H2" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1665,25 +2577,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D3" s="20">
         <v>44735</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3" s="20">
         <v>44735</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1691,21 +2603,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="20">
         <v>44735</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1713,25 +2625,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="20">
         <v>44735</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="20">
         <v>44735</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1742,4 +2654,777 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="4.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="4" style="38" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="6.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="4.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="34" max="38" width="4.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="42"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="39"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="42"/>
+    </row>
+    <row r="3" spans="1:40" ht="32.25" thickBot="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="84" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
+    </row>
+    <row r="4" spans="1:40" ht="27">
+      <c r="A4" s="39"/>
+      <c r="B4" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="39"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="N5" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="S5" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="T5" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="U5" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="V5" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="W5" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="X5" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y5" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA5" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="74"/>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" s="39"/>
+      <c r="B6" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="76"/>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="39"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="76"/>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="39"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="77"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="39"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="76"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="39"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="76"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="39"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="76"/>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="39"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="76"/>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="39"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="76"/>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="39"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="76"/>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="39"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="76"/>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="39"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+      <c r="AB16" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="76"/>
+    </row>
+    <row r="17" spans="1:29" ht="17.25" thickBot="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="82">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="83"/>
+    </row>
+    <row r="18" spans="1:29" ht="17.25" thickBot="1"/>
+    <row r="19" spans="1:29">
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB19" s="59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB20" s="62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="17.25" thickBot="1">
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB21" s="65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="P4:AA4"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
     <sheet name="issue" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId3"/>
+    <sheet name="개발 일정" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기능명세서!$A$2:$J$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기능명세서!$A$2:$J$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="160">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>QnA 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA비회원 정보 DB추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -622,6 +618,54 @@
   </si>
   <si>
     <t>QnA CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE Query추가로 형식 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부기능 issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부기능 issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password입력 Popup 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제, 수정 시 따로 popup이 연결되어야해 비밀번호popup 추가 및 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board 수정,삭제 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto increment 삭제 데이터 다음부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data 삭제 후 저장 시 auto increment 삭제 데이터 다음부터 된다. 보완 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,9 +675,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1200,8 +1244,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="6" applyFill="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="6" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -1209,7 +1253,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,33 +1341,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1349,18 +1366,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="16" fillId="10" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="10" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1378,9 +1389,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,21 +1414,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1429,39 +1422,87 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="179" fontId="16" fillId="10" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="10" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="10" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="10" borderId="22" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="16" fillId="10" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="16" fillId="10" borderId="21" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="16" fillId="10" borderId="8" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="16" fillId="10" borderId="22" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,20 +1512,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1887,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1908,18 +1949,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A1" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="31"/>
+      <c r="A1" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="67"/>
       <c r="G1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="35.1" customHeight="1">
@@ -1939,7 +1980,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -1955,14 +1996,14 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="29" t="s">
-        <v>28</v>
+      <c r="A3" s="65" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4">
         <v>3</v>
@@ -1979,16 +2020,16 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="29"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2001,18 +2042,18 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="29" t="s">
-        <v>29</v>
+      <c r="A5" s="65" t="s">
+        <v>28</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2031,12 +2072,12 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="29"/>
-      <c r="B6" s="32" t="s">
-        <v>30</v>
+      <c r="A6" s="65"/>
+      <c r="B6" s="68" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2055,10 +2096,10 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="29"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -2075,18 +2116,18 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>47</v>
+      <c r="A8" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -2099,14 +2140,14 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="29"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -2119,14 +2160,14 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="29"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -2139,16 +2180,16 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="29"/>
-      <c r="B11" s="32" t="s">
-        <v>48</v>
+      <c r="A11" s="65"/>
+      <c r="B11" s="68" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2163,10 +2204,10 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4">
         <v>4</v>
@@ -2179,15 +2220,15 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>49</v>
+      <c r="A13" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>11</v>
@@ -2207,12 +2248,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="29"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
@@ -2227,12 +2268,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="29"/>
-      <c r="B15" s="35"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2253,91 +2294,111 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="29"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="71"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="11">
+        <v>2</v>
+      </c>
       <c r="F16" s="7">
         <v>44735</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="7">
+        <v>44736</v>
+      </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="29"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11">
+        <v>2</v>
+      </c>
       <c r="F17" s="7">
         <v>44735</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="7">
+        <v>44736</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="29"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="11">
+        <v>2</v>
+      </c>
       <c r="F18" s="7">
         <v>44735</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="7">
+        <v>44736</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="29"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11">
+        <v>2</v>
+      </c>
       <c r="F19" s="7">
         <v>44735</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="7">
+        <v>44736</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="29"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="68" t="s">
+        <v>50</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="7">
-        <v>44735</v>
+        <v>44737</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2345,12 +2406,8 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>51</v>
-      </c>
+      <c r="A21" s="65"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
@@ -2367,17 +2424,19 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="69" t="s">
+        <v>49</v>
+      </c>
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="7">
-        <v>44737</v>
+        <v>44743</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2385,10 +2444,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="29"/>
-      <c r="B23" s="33" t="s">
-        <v>50</v>
-      </c>
+      <c r="A23" s="65"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2397,7 +2454,7 @@
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="7">
-        <v>44743</v>
+        <v>44744</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2405,17 +2462,19 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="29"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="7">
-        <v>44744</v>
+        <v>44745</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2423,94 +2482,74 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="29"/>
+      <c r="A25" s="65" t="s">
+        <v>52</v>
+      </c>
       <c r="B25" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>78</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="7">
-        <v>44745</v>
+        <v>44746</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>79</v>
+      <c r="A26" s="65"/>
+      <c r="B26" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="7">
-        <v>44746</v>
+        <v>44745</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="29"/>
-      <c r="B27" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="7">
-        <v>44745</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+    <row r="29" spans="1:10">
+      <c r="A29" s="26" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:J25"/>
+  <autoFilter ref="A2:J24"/>
   <mergeCells count="14">
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A20:A24"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2520,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2532,44 +2571,44 @@
     <col min="2" max="2" width="11.125" style="14" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="A1" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="16"/>
       <c r="B2" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>62</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2577,25 +2616,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="20">
         <v>44735</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="20">
         <v>44735</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2603,21 +2642,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="20">
         <v>44735</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="20"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2625,25 +2664,97 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="20">
         <v>44735</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F5" s="20">
         <v>44735</v>
       </c>
       <c r="G5" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>82</v>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="20">
+        <v>44736</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="20">
+        <v>44736</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="90">
+        <v>5</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="20">
+        <v>44736</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="20">
+        <v>44736</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="90">
+        <v>6</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="20">
+        <v>44736</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="27" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2660,754 +2771,759 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="4.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="4" style="38" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="6.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="4.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="34" max="38" width="4.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="38"/>
+    <col min="1" max="1" width="5.625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="4.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="24" width="4" style="29" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="4.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="6.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="4.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="34" max="38" width="4.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="39"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="39"/>
-      <c r="AK1" s="39"/>
-      <c r="AL1" s="39"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="42"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="39"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="43"/>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42"/>
+      <c r="A2" s="30"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="33"/>
     </row>
     <row r="3" spans="1:40" ht="32.25" thickBot="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="84" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="33"/>
+    </row>
+    <row r="4" spans="1:40" ht="27">
+      <c r="A4" s="30"/>
+      <c r="B4" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC4" s="55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" s="30"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="V5" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="W5" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="X5" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y5" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z5" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA5" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="56"/>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" s="30"/>
+      <c r="B6" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
-    </row>
-    <row r="4" spans="1:40" ht="27">
-      <c r="A4" s="39"/>
-      <c r="B4" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC4" s="72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5" s="39"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="L5" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="O5" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" s="44" t="s">
+      <c r="C6" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="57"/>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" s="30"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="57"/>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" s="30"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="58"/>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" s="30"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="57"/>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" s="30"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="57"/>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" s="30"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="57"/>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="30"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="57"/>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="30"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="T5" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="U5" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="V5" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="W5" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="X5" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y5" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z5" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA5" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="74"/>
-    </row>
-    <row r="6" spans="1:40">
-      <c r="A6" s="39"/>
-      <c r="B6" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="50">
+      <c r="E13" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="39">
         <v>0</v>
       </c>
-      <c r="AC6" s="76"/>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="39"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="50">
+      <c r="AC13" s="57"/>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="30"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="39">
         <v>0</v>
       </c>
-      <c r="AC7" s="76"/>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" s="39"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="50">
+      <c r="AC14" s="57"/>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="30"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="39">
         <v>0</v>
       </c>
-      <c r="AC8" s="77"/>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="A9" s="39"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="50">
+      <c r="AC15" s="57"/>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="30"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="39">
         <v>0</v>
       </c>
-      <c r="AC9" s="76"/>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" s="39"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="50">
+      <c r="AC16" s="57"/>
+    </row>
+    <row r="17" spans="1:29" ht="17.25" thickBot="1">
+      <c r="A17" s="30"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="60"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="60"/>
+      <c r="U17" s="60"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="60"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="61">
         <v>0</v>
       </c>
-      <c r="AC10" s="76"/>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" s="39"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="76"/>
-    </row>
-    <row r="12" spans="1:40">
-      <c r="A12" s="39"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="50">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="76"/>
-    </row>
-    <row r="13" spans="1:40">
-      <c r="A13" s="39"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="50">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="76"/>
-    </row>
-    <row r="14" spans="1:40">
-      <c r="A14" s="39"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="50">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="76"/>
-    </row>
-    <row r="15" spans="1:40">
-      <c r="A15" s="39"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="47"/>
-      <c r="AA15" s="47"/>
-      <c r="AB15" s="50">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="76"/>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="A16" s="39"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="47"/>
-      <c r="AA16" s="47"/>
-      <c r="AB16" s="50">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="76"/>
-    </row>
-    <row r="17" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="82">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="83"/>
+      <c r="AC17" s="62"/>
     </row>
     <row r="18" spans="1:29" ht="17.25" thickBot="1"/>
     <row r="19" spans="1:29">
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58" t="s">
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB19" s="47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB20" s="50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="17.25" thickBot="1">
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AB19" s="59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB20" s="62" t="s">
+      <c r="AB21" s="53" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="17.25" thickBot="1">
-      <c r="Z21" s="63"/>
-      <c r="AA21" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="AB21" s="65" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="P4:AA4"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="B6:B17"/>
@@ -3417,11 +3533,6 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="F4:O4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -1449,6 +1449,9 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,6 +1474,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,30 +1526,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1931,7 +1931,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -1949,16 +1949,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="67"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="9" t="s">
         <v>40</v>
       </c>
@@ -1996,7 +1996,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -2024,7 +2024,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="65"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="24" t="s">
         <v>42</v>
       </c>
@@ -2046,7 +2046,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="25" t="s">
@@ -2072,8 +2072,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="65"/>
-      <c r="B6" s="68" t="s">
+      <c r="A6" s="66"/>
+      <c r="B6" s="69" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2096,8 +2096,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="65"/>
-      <c r="B7" s="68"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2120,10 +2120,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="70" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2144,8 +2144,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="65"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -2164,8 +2164,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="65"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -2184,8 +2184,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="65"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="66"/>
+      <c r="B11" s="69" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2204,8 +2204,8 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="65"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
@@ -2224,10 +2224,10 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="71" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2252,19 +2252,23 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="65"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
       <c r="F14" s="7">
         <v>44735</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="7">
+        <v>44736</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="10" t="s">
@@ -2272,8 +2276,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="65"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2294,8 +2298,8 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="65"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -2318,8 +2322,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="65"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
@@ -2340,8 +2344,8 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="65"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
@@ -2362,8 +2366,8 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="65"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
@@ -2384,10 +2388,10 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2406,8 +2410,8 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="65"/>
-      <c r="B21" s="68"/>
+      <c r="A21" s="66"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
@@ -2424,8 +2428,8 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="65"/>
-      <c r="B22" s="69" t="s">
+      <c r="A22" s="66"/>
+      <c r="B22" s="70" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2444,8 +2448,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="65"/>
-      <c r="B23" s="69"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2462,7 +2466,7 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="65"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="25" t="s">
         <v>51</v>
       </c>
@@ -2482,7 +2486,7 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="66" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -2504,7 +2508,7 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="65"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="24" t="s">
         <v>54</v>
       </c>
@@ -2578,14 +2582,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="16"/>
@@ -2710,13 +2714,13 @@
       <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="90">
+      <c r="A7" s="65">
         <v>5</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="65" t="s">
         <v>152</v>
       </c>
       <c r="D7" s="20">
@@ -2736,13 +2740,13 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="90">
+      <c r="A8" s="65">
         <v>6</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="65" t="s">
         <v>153</v>
       </c>
       <c r="D8" s="20">
@@ -2877,12 +2881,12 @@
     </row>
     <row r="3" spans="1:40" ht="32.25" thickBot="1">
       <c r="A3" s="30"/>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -2921,44 +2925,44 @@
     </row>
     <row r="4" spans="1:40" ht="27">
       <c r="A4" s="30"/>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="73" t="s">
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="75"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="83"/>
       <c r="AB4" s="54" t="s">
         <v>89</v>
       </c>
@@ -2968,10 +2972,10 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="30"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
       <c r="F5" s="35" t="s">
         <v>119</v>
       </c>
@@ -3043,7 +3047,7 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="30"/>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="87" t="s">
         <v>113</v>
       </c>
       <c r="C6" s="36" t="s">
@@ -3084,7 +3088,7 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="30"/>
-      <c r="B7" s="79"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="36" t="s">
         <v>97</v>
       </c>
@@ -3123,8 +3127,8 @@
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="30"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="81" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="89" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -3162,8 +3166,8 @@
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="30"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="81"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="36" t="s">
         <v>103</v>
       </c>
@@ -3199,11 +3203,11 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="30"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="81" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="89" t="s">
         <v>115</v>
       </c>
       <c r="E10" s="36" t="s">
@@ -3238,9 +3242,9 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="30"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="36" t="s">
         <v>143</v>
       </c>
@@ -3273,8 +3277,8 @@
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="30"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="81"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="36" t="s">
         <v>117</v>
       </c>
@@ -3310,9 +3314,9 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="30"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="76" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="84" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="36" t="s">
@@ -3347,9 +3351,9 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="30"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="77"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="85"/>
       <c r="E14" s="37" t="s">
         <v>144</v>
       </c>
@@ -3382,9 +3386,9 @@
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="30"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="78"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="36" t="s">
         <v>145</v>
       </c>
@@ -3417,11 +3421,11 @@
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="30"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="89" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -3456,9 +3460,9 @@
     </row>
     <row r="17" spans="1:29" ht="17.25" thickBot="1">
       <c r="A17" s="30"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="59" t="s">
         <v>109</v>
       </c>
@@ -3519,11 +3523,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="P4:AA4"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="B6:B17"/>
@@ -3533,6 +3532,11 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="F4:O4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="164">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,6 +666,22 @@
   </si>
   <si>
     <t>Data 삭제 후 저장 시 auto increment 삭제 데이터 다음부터 된다. 보완 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비공개글 게시여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비공개글 게시 방법 및 수정/삭제 안되게 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1476,27 +1492,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1526,6 +1521,27 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1930,7 +1946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -2563,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2759,6 +2775,30 @@
       <c r="G8" s="21"/>
       <c r="H8" s="27" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="20">
+        <v>44736</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2881,12 +2921,12 @@
     </row>
     <row r="3" spans="1:40" ht="32.25" thickBot="1">
       <c r="A3" s="30"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30"/>
@@ -2925,44 +2965,44 @@
     </row>
     <row r="4" spans="1:40" ht="27">
       <c r="A4" s="30"/>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="81" t="s">
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="83"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="76"/>
       <c r="AB4" s="54" t="s">
         <v>89</v>
       </c>
@@ -2972,10 +3012,10 @@
     </row>
     <row r="5" spans="1:40">
       <c r="A5" s="30"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="35" t="s">
         <v>119</v>
       </c>
@@ -3047,7 +3087,7 @@
     </row>
     <row r="6" spans="1:40">
       <c r="A6" s="30"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="80" t="s">
         <v>113</v>
       </c>
       <c r="C6" s="36" t="s">
@@ -3088,7 +3128,7 @@
     </row>
     <row r="7" spans="1:40">
       <c r="A7" s="30"/>
-      <c r="B7" s="87"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="36" t="s">
         <v>97</v>
       </c>
@@ -3127,8 +3167,8 @@
     </row>
     <row r="8" spans="1:40">
       <c r="A8" s="30"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="89" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="82" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="36" t="s">
@@ -3166,8 +3206,8 @@
     </row>
     <row r="9" spans="1:40">
       <c r="A9" s="30"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="36" t="s">
         <v>103</v>
       </c>
@@ -3203,11 +3243,11 @@
     </row>
     <row r="10" spans="1:40">
       <c r="A10" s="30"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="89" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="82" t="s">
         <v>115</v>
       </c>
       <c r="E10" s="36" t="s">
@@ -3242,9 +3282,9 @@
     </row>
     <row r="11" spans="1:40">
       <c r="A11" s="30"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="36" t="s">
         <v>143</v>
       </c>
@@ -3277,8 +3317,8 @@
     </row>
     <row r="12" spans="1:40">
       <c r="A12" s="30"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="36" t="s">
         <v>117</v>
       </c>
@@ -3314,9 +3354,9 @@
     </row>
     <row r="13" spans="1:40">
       <c r="A13" s="30"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="84" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="77" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="36" t="s">
@@ -3351,9 +3391,9 @@
     </row>
     <row r="14" spans="1:40">
       <c r="A14" s="30"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="85"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="78"/>
       <c r="E14" s="37" t="s">
         <v>144</v>
       </c>
@@ -3386,9 +3426,9 @@
     </row>
     <row r="15" spans="1:40">
       <c r="A15" s="30"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="79"/>
       <c r="E15" s="36" t="s">
         <v>145</v>
       </c>
@@ -3421,11 +3461,11 @@
     </row>
     <row r="16" spans="1:40">
       <c r="A16" s="30"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="82" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="36" t="s">
@@ -3460,9 +3500,9 @@
     </row>
     <row r="17" spans="1:29" ht="17.25" thickBot="1">
       <c r="A17" s="30"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="59" t="s">
         <v>109</v>
       </c>
@@ -3523,6 +3563,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="P4:AA4"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="B6:B17"/>
@@ -3532,11 +3577,6 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="F4:O4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyg51\Desktop\car_accident\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37001B2-9A8B-4097-BAB8-4F46B5ADCEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="163">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,9 +361,6 @@
   <si>
     <t>깃허브 권한문제 해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2일</t>
   </si>
   <si>
     <t>관리자 페이지</t>
@@ -394,10 +392,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>10일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>27일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,14 +516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">25일 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>28일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,10 +528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,10 +544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,13 +660,33 @@
   </si>
   <si>
     <t>비공개글 게시 방법 및 수정/삭제 안되게 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-24 지유 휴가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계관련 js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴(지유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴(정수)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -844,7 +842,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,13 +911,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,7 +1273,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1315,24 +1319,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1390,9 +1385,6 @@
     <xf numFmtId="179" fontId="16" fillId="10" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1414,9 +1406,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1459,7 +1448,7 @@
     <xf numFmtId="179" fontId="16" fillId="10" borderId="22" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1471,6 +1460,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1490,6 +1485,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1522,43 +1538,56 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="_CCNSVL-1-PIX515-SI_122311" xfId="2"/>
-    <cellStyle name="_CCNSVL-1-PIX515-SI_122312" xfId="3"/>
-    <cellStyle name="스타일 1" xfId="4"/>
-    <cellStyle name="콤마 [0]_7000 FEIP 2" xfId="5"/>
-    <cellStyle name="콤마_7000 FEIP 2" xfId="6"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
-    <cellStyle name="표준 2 2" xfId="7"/>
-    <cellStyle name="표준 9" xfId="8"/>
+    <cellStyle name="_CCNSVL-1-PIX515-SI_122311" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_CCNSVL-1-PIX515-SI_122312" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="스타일 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="콤마 [0]_7000 FEIP 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="콤마_7000 FEIP 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="표준 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="표준 9" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFF3E5FF"/>
     </mruColors>
@@ -1578,26 +1607,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>50801</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>375582</xdr:rowOff>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <xdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6470650" y="450851"/>
-          <a:ext cx="634999" cy="324781"/>
+          <a:off x="7302500" y="285751"/>
+          <a:ext cx="736600" cy="317499"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1943,43 +1978,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.25" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.625" style="5"/>
+    <col min="7" max="7" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.58203125" style="5"/>
     <col min="10" max="10" width="60.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="5"/>
+    <col min="11" max="16384" width="8.58203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A1" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68" t="s">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="44">
+      <c r="A1" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="68"/>
+      <c r="F1" s="65"/>
       <c r="G1" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="35.1" customHeight="1">
+    <row r="2" spans="1:10" ht="35.15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2012,10 +2047,10 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2024,7 +2059,7 @@
       <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="19">
         <v>3</v>
       </c>
       <c r="F3" s="7">
@@ -2040,8 +2075,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="66"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2052,7 +2087,7 @@
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="7">
-        <v>44736</v>
+        <v>44739</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2062,10 +2097,10 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2088,8 +2123,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="66"/>
-      <c r="B6" s="69" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="66" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2112,8 +2147,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="66"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2136,10 +2171,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="67" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2150,7 +2185,7 @@
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="7">
-        <v>44739</v>
+        <v>44742</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -2160,8 +2195,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="66"/>
-      <c r="B9" s="70"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -2170,7 +2205,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="7">
-        <v>44737</v>
+        <v>44740</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2180,8 +2215,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="66"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -2190,7 +2225,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="7">
-        <v>44741</v>
+        <v>44746</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2200,8 +2235,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="66"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="66" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2212,7 +2247,7 @@
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="7">
-        <v>44740</v>
+        <v>44743</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2220,8 +2255,8 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="66"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
@@ -2230,7 +2265,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="7">
-        <v>44741</v>
+        <v>44746</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2240,10 +2275,10 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="71" t="s">
+      <c r="A13" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="68" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2268,8 +2303,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="66"/>
-      <c r="B14" s="72"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
@@ -2292,8 +2327,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="66"/>
-      <c r="B15" s="72"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2314,8 +2349,8 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="66"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -2338,8 +2373,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="66"/>
-      <c r="B17" s="72"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
@@ -2360,8 +2395,8 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="66"/>
-      <c r="B18" s="72"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
@@ -2382,8 +2417,8 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="66"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
@@ -2404,10 +2439,10 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="66" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2418,7 +2453,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="7">
-        <v>44737</v>
+        <v>44740</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2426,8 +2461,8 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="66"/>
-      <c r="B21" s="69"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
@@ -2436,7 +2471,7 @@
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="7">
-        <v>44737</v>
+        <v>44740</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -2444,8 +2479,8 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="66"/>
-      <c r="B22" s="70" t="s">
+      <c r="A22" s="63"/>
+      <c r="B22" s="67" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2456,7 +2491,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="7">
-        <v>44743</v>
+        <v>44748</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2464,8 +2499,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="66"/>
-      <c r="B23" s="70"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="67"/>
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2474,7 +2509,7 @@
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="7">
-        <v>44744</v>
+        <v>44749</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2482,8 +2517,8 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="66"/>
-      <c r="B24" s="25" t="s">
+      <c r="A24" s="63"/>
+      <c r="B24" s="22" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -2494,7 +2529,7 @@
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="7">
-        <v>44745</v>
+        <v>44742</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2502,10 +2537,10 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2516,7 +2551,7 @@
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="7">
-        <v>44746</v>
+        <v>44750</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2524,8 +2559,8 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="66"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="63"/>
+      <c r="B26" s="21" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2536,25 +2571,15 @@
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="7">
-        <v>44745</v>
+        <v>44750</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:J24"/>
+  <autoFilter ref="A2:J24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="14">
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A1:D1"/>
@@ -2578,227 +2603,227 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.08203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:8" ht="44">
+      <c r="A1" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="19">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="7">
         <v>44735</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="7">
         <v>44735</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="7">
         <v>44735</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="7">
         <v>44735</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="7">
         <v>44735</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="25" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44736</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="7">
+        <v>44736</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="60">
+        <v>5</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="7">
+        <v>44736</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="7">
+        <v>44736</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="H7" s="24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="60">
+        <v>6</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="7">
+        <v>44736</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="20">
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="60">
+        <v>7</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="7">
         <v>44736</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="20">
-        <v>44736</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="65">
-        <v>5</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="20">
-        <v>44736</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="E9" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>157</v>
-      </c>
-      <c r="F7" s="20">
-        <v>44736</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="65">
-        <v>6</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="20">
-        <v>44736</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="65">
-        <v>7</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="20">
-        <v>44736</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2812,771 +2837,712 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="4.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="4" style="29" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="4.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="6.375" style="29" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="4.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="34" max="38" width="4.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.375" style="29" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="5.58203125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="22" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="4" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="6.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="30"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
+    <row r="1" spans="1:34">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="29"/>
       <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="30"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="33"/>
-    </row>
-    <row r="3" spans="1:40" ht="32.25" thickBot="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="84" t="s">
+    </row>
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="27"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="30"/>
+    </row>
+    <row r="3" spans="1:34" ht="30.5" thickBot="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="30"/>
+    </row>
+    <row r="4" spans="1:34" ht="32">
+      <c r="A4" s="27"/>
+      <c r="B4" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" s="50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="27"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="U5" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="V5" s="39"/>
+      <c r="W5" s="51"/>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="27"/>
+      <c r="B6" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="33"/>
-    </row>
-    <row r="4" spans="1:40" ht="27">
-      <c r="A4" s="30"/>
-      <c r="B4" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="89" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="89" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC4" s="55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5" s="30"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="Q5" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="R5" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="S5" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="U5" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="V5" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="W5" s="35" t="s">
+      <c r="E6" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="36">
+        <v>0</v>
+      </c>
+      <c r="W6" s="52"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="27"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="X5" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y5" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z5" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA5" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="56"/>
-    </row>
-    <row r="6" spans="1:40">
-      <c r="A6" s="30"/>
-      <c r="B6" s="80" t="s">
+      <c r="D7" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="36">
+        <v>0</v>
+      </c>
+      <c r="W7" s="52"/>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="27"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="36">
+        <v>0</v>
+      </c>
+      <c r="W8" s="53"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="27"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="36">
+        <v>0</v>
+      </c>
+      <c r="W9" s="52"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="27"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="86" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="57"/>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" s="30"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="57"/>
-    </row>
-    <row r="8" spans="1:40">
-      <c r="A8" s="30"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="58"/>
-    </row>
-    <row r="9" spans="1:40">
-      <c r="A9" s="30"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="39">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="57"/>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" s="30"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="E10" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="34"/>
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="39">
+      <c r="M10" s="37"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="36">
         <v>0</v>
       </c>
-      <c r="AC10" s="57"/>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" s="30"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="39">
+      <c r="W10" s="52"/>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="27"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="36">
         <v>0</v>
       </c>
-      <c r="AC11" s="57"/>
-    </row>
-    <row r="12" spans="1:40">
-      <c r="A12" s="30"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="39">
+      <c r="W11" s="52"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="27"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="91"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="36">
         <v>0</v>
       </c>
-      <c r="AC12" s="57"/>
-    </row>
-    <row r="13" spans="1:40">
-      <c r="A13" s="30"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="39">
+      <c r="W12" s="52"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="27"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="36">
         <v>0</v>
       </c>
-      <c r="AC13" s="57"/>
-    </row>
-    <row r="14" spans="1:40">
-      <c r="A14" s="30"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="39">
+      <c r="W13" s="52"/>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="27"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="36">
         <v>0</v>
       </c>
-      <c r="AC14" s="57"/>
-    </row>
-    <row r="15" spans="1:40">
-      <c r="A15" s="30"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="39">
+      <c r="W14" s="52"/>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="27"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="36">
         <v>0</v>
       </c>
-      <c r="AC15" s="57"/>
-    </row>
-    <row r="16" spans="1:40">
-      <c r="A16" s="30"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="82" t="s">
+      <c r="W15" s="52"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="27"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="36">
+        <v>0</v>
+      </c>
+      <c r="W16" s="52"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="27"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="82" t="s">
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="36">
+        <v>0</v>
+      </c>
+      <c r="W17" s="52"/>
+    </row>
+    <row r="18" spans="1:23" ht="17.5" thickBot="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="39">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="90"/>
+      <c r="U18" s="90"/>
+      <c r="V18" s="56">
         <v>0</v>
       </c>
-      <c r="AC16" s="57"/>
-    </row>
-    <row r="17" spans="1:29" ht="17.25" thickBot="1">
-      <c r="A17" s="30"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="60"/>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="61">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="62"/>
-    </row>
-    <row r="18" spans="1:29" ht="17.25" thickBot="1"/>
-    <row r="19" spans="1:29">
-      <c r="Z19" s="45"/>
-      <c r="AA19" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="AB19" s="47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB20" s="50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="17.25" thickBot="1">
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB21" s="53" t="s">
-        <v>137</v>
-      </c>
+      <c r="W18" s="57"/>
+    </row>
+    <row r="19" spans="1:23" ht="17.5" thickBot="1"/>
+    <row r="20" spans="1:23">
+      <c r="T20" s="41"/>
+      <c r="U20" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="V20" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="B21" s="5"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="V21" s="45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="17.5" thickBot="1">
+      <c r="B22" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="T22" s="46"/>
+      <c r="U22" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="V22" s="48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="B23" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="B24" s="61" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="B26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N4:U4"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="B6:B18"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F4:M4"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="P4:AA4"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F4:O4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyg51\Desktop\car_accident\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37001B2-9A8B-4097-BAB8-4F46B5ADCEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CAEE87-DE75-4EFD-A472-D0EE28250CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="164">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,6 +680,10 @@
   </si>
   <si>
     <t>휴(정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-28 지유 휴가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1273,7 +1277,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1466,6 +1470,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,27 +1522,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1538,34 +1554,25 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1981,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
@@ -2000,16 +2007,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="44">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="65" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="65"/>
+      <c r="F1" s="76"/>
       <c r="G1" s="9" t="s">
         <v>40</v>
       </c>
@@ -2047,7 +2054,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="74" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -2075,7 +2082,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="63"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="21" t="s">
         <v>42</v>
       </c>
@@ -2085,11 +2092,15 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
       <c r="F4" s="7">
         <v>44739</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="7">
+        <v>44739</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="10" t="s">
@@ -2097,7 +2108,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="74" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -2123,8 +2134,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="77" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2147,8 +2158,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="77"/>
       <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2171,10 +2182,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="78" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2195,17 +2206,17 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="63"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="7">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2215,8 +2226,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="63"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -2235,8 +2246,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="63"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="77" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2255,8 +2266,8 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="63"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
@@ -2275,10 +2286,10 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="79" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2303,8 +2314,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="63"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
@@ -2327,8 +2338,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="63"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2349,8 +2360,8 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="63"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -2373,8 +2384,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="63"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
@@ -2395,8 +2406,8 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="63"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
@@ -2417,8 +2428,8 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="63"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
@@ -2439,10 +2450,10 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="77" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2461,8 +2472,8 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="63"/>
-      <c r="B21" s="66"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
@@ -2479,8 +2490,8 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="63"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="74"/>
+      <c r="B22" s="78" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2499,8 +2510,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="63"/>
-      <c r="B23" s="67"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2517,7 +2528,7 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="63"/>
+      <c r="A24" s="74"/>
       <c r="B24" s="22" t="s">
         <v>51</v>
       </c>
@@ -2537,7 +2548,7 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="74" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -2559,7 +2570,7 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="63"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="21" t="s">
         <v>54</v>
       </c>
@@ -2606,7 +2617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -2623,30 +2634,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="71" t="s">
         <v>68</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="D2" s="73" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="73" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="16" t="s">
@@ -2758,7 +2769,7 @@
       <c r="A7" s="60">
         <v>5</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="72" t="s">
         <v>145</v>
       </c>
       <c r="C7" s="60" t="s">
@@ -2784,7 +2795,7 @@
       <c r="A8" s="60">
         <v>6</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="72" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="60" t="s">
@@ -2806,7 +2817,7 @@
       <c r="A9" s="60">
         <v>7</v>
       </c>
-      <c r="B9" s="96" t="s">
+      <c r="B9" s="72" t="s">
         <v>154</v>
       </c>
       <c r="C9" s="60" t="s">
@@ -2841,7 +2852,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
@@ -2852,8 +2863,8 @@
     <col min="4" max="4" width="12.75" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="4" style="26" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="6.33203125" style="26" bestFit="1" customWidth="1"/>
@@ -2934,12 +2945,12 @@
     </row>
     <row r="3" spans="1:34" ht="30.5" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -2972,38 +2983,38 @@
     </row>
     <row r="4" spans="1:34" ht="32">
       <c r="A4" s="27"/>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="78" t="s">
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="80"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="84"/>
       <c r="V4" s="49" t="s">
         <v>88</v>
       </c>
@@ -3013,10 +3024,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="32" t="s">
         <v>117</v>
       </c>
@@ -3070,7 +3081,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="88" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -3105,7 +3116,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="84"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
@@ -3138,8 +3149,8 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="90" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3171,8 +3182,8 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="86"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="33" t="s">
         <v>101</v>
       </c>
@@ -3202,20 +3213,20 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="86" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="90" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94" t="s">
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70" t="s">
         <v>161</v>
       </c>
       <c r="J10" s="34"/>
@@ -3237,17 +3248,17 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="33" t="s">
         <v>137</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="93"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
@@ -3266,9 +3277,9 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="89" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="65" t="s">
         <v>159</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -3276,15 +3287,17 @@
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
       <c r="Q12" s="59"/>
       <c r="R12" s="59"/>
       <c r="S12" s="34"/>
@@ -3297,8 +3310,8 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="33" t="s">
         <v>115</v>
       </c>
@@ -3309,7 +3322,7 @@
       <c r="G13" s="34"/>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
-      <c r="J13" s="94" t="s">
+      <c r="J13" s="70" t="s">
         <v>162</v>
       </c>
       <c r="K13" s="34"/>
@@ -3330,9 +3343,9 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="81" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="85" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3361,9 +3374,9 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="82"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="34" t="s">
         <v>138</v>
       </c>
@@ -3378,8 +3391,8 @@
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="34"/>
@@ -3390,9 +3403,9 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="83"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="33" t="s">
         <v>139</v>
       </c>
@@ -3404,7 +3417,7 @@
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
       <c r="M16" s="59"/>
-      <c r="N16" s="88"/>
+      <c r="N16" s="64"/>
       <c r="O16" s="34"/>
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
@@ -3419,11 +3432,11 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="86" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="90" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -3452,9 +3465,9 @@
     </row>
     <row r="18" spans="1:23" ht="17.5" thickBot="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
@@ -3472,8 +3485,8 @@
       <c r="Q18" s="55"/>
       <c r="R18" s="55"/>
       <c r="S18" s="55"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
       <c r="V18" s="56">
         <v>0</v>
       </c>
@@ -3491,7 +3504,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="B21" s="5"/>
-      <c r="T21" s="92"/>
+      <c r="T21" s="68"/>
       <c r="U21" s="44" t="s">
         <v>132</v>
       </c>
@@ -3522,13 +3535,20 @@
       </c>
     </row>
     <row r="25" spans="1:23">
-      <c r="B25" s="5"/>
+      <c r="B25" s="63" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="26" spans="1:23">
       <c r="B26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B6:B18"/>
@@ -3538,11 +3558,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F4:M4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyg51\Desktop\car_accident\VIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CAEE87-DE75-4EFD-A472-D0EE28250CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -690,7 +689,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -1524,6 +1523,27 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1554,38 +1574,17 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="_CCNSVL-1-PIX515-SI_122311" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="_CCNSVL-1-PIX515-SI_122312" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="스타일 1" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="콤마 [0]_7000 FEIP 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="콤마_7000 FEIP 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="표준 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="표준 9" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="_CCNSVL-1-PIX515-SI_122311" xfId="2"/>
+    <cellStyle name="_CCNSVL-1-PIX515-SI_122312" xfId="3"/>
+    <cellStyle name="스타일 1" xfId="4"/>
+    <cellStyle name="콤마 [0]_7000 FEIP 2" xfId="5"/>
+    <cellStyle name="콤마_7000 FEIP 2" xfId="6"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2 2" xfId="7"/>
+    <cellStyle name="표준 9" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1985,28 +1984,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.25" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.58203125" style="5"/>
+    <col min="7" max="7" width="8.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.625" style="5"/>
     <col min="10" max="10" width="60.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.58203125" style="5"/>
+    <col min="11" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="44">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
       <c r="A1" s="75" t="s">
         <v>109</v>
       </c>
@@ -2021,7 +2020,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="35.15" customHeight="1">
+    <row r="2" spans="1:10" ht="35.1" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2462,11 +2461,15 @@
       <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
       <c r="F20" s="7">
         <v>44740</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="7">
+        <v>44740</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="3"/>
@@ -2480,11 +2483,15 @@
       <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
       <c r="F21" s="7">
         <v>44740</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="7">
+        <v>44740</v>
+      </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="3"/>
@@ -2590,7 +2597,7 @@
       <c r="J26" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:J24"/>
   <mergeCells count="14">
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A1:D1"/>
@@ -2614,26 +2621,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="14.08203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="80.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="44">
+    <row r="1" spans="1:8" ht="45">
       <c r="A1" s="81" t="s">
         <v>60</v>
       </c>
@@ -2848,30 +2855,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="26" customWidth="1"/>
     <col min="2" max="2" width="22" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="7.1640625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="4.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="7.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.875" style="26" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="4" style="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.33203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="4.83203125" style="26" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="6.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="4.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="4.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="6.375" style="26" bestFit="1" customWidth="1"/>
     <col min="35" max="16384" width="9" style="26"/>
   </cols>
   <sheetData>
@@ -2943,14 +2950,14 @@
       <c r="AG2" s="29"/>
       <c r="AH2" s="30"/>
     </row>
-    <row r="3" spans="1:34" ht="30.5" thickBot="1">
+    <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -2981,40 +2988,40 @@
       <c r="AG3" s="29"/>
       <c r="AH3" s="30"/>
     </row>
-    <row r="4" spans="1:34" ht="32">
+    <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="82" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="84"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91"/>
       <c r="V4" s="49" t="s">
         <v>88</v>
       </c>
@@ -3024,10 +3031,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="32" t="s">
         <v>117</v>
       </c>
@@ -3081,7 +3088,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="95" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -3116,7 +3123,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="88"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
@@ -3149,8 +3156,8 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="90" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="97" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3182,8 +3189,8 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="33" t="s">
         <v>101</v>
       </c>
@@ -3213,11 +3220,11 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="97" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3248,9 +3255,9 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="33" t="s">
         <v>137</v>
       </c>
@@ -3277,8 +3284,8 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="65" t="s">
         <v>159</v>
       </c>
@@ -3310,8 +3317,8 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="33" t="s">
         <v>115</v>
       </c>
@@ -3343,9 +3350,9 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="85" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="92" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3374,9 +3381,9 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="34" t="s">
         <v>138</v>
       </c>
@@ -3403,9 +3410,9 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="87"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="33" t="s">
         <v>139</v>
       </c>
@@ -3432,11 +3439,11 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="90" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="97" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -3463,11 +3470,11 @@
       </c>
       <c r="W17" s="52"/>
     </row>
-    <row r="18" spans="1:23" ht="17.5" thickBot="1">
+    <row r="18" spans="1:23" ht="17.25" thickBot="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
@@ -3492,7 +3499,7 @@
       </c>
       <c r="W18" s="57"/>
     </row>
-    <row r="19" spans="1:23" ht="17.5" thickBot="1"/>
+    <row r="19" spans="1:23" ht="17.25" thickBot="1"/>
     <row r="20" spans="1:23">
       <c r="T20" s="41"/>
       <c r="U20" s="42" t="s">
@@ -3512,7 +3519,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="17.5" thickBot="1">
+    <row r="22" spans="1:23" ht="17.25" thickBot="1">
       <c r="B22" s="23" t="s">
         <v>76</v>
       </c>
@@ -3544,11 +3551,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B6:B18"/>
@@ -3558,6 +3560,11 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F4:M4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -1523,27 +1523,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1573,6 +1552,27 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1613,16 +1613,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>69851</xdr:rowOff>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>206375</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1637,8 +1637,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7302500" y="285751"/>
-          <a:ext cx="736600" cy="317499"/>
+          <a:off x="8331200" y="288926"/>
+          <a:ext cx="733425" cy="317499"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1987,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2858,8 +2858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2952,12 +2952,12 @@
     </row>
     <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -2990,38 +2990,38 @@
     </row>
     <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="89" t="s">
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="91"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="84"/>
       <c r="V4" s="49" t="s">
         <v>88</v>
       </c>
@@ -3031,10 +3031,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="32" t="s">
         <v>117</v>
       </c>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="88" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -3123,7 +3123,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="95"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
@@ -3156,8 +3156,8 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="90" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3189,8 +3189,8 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="33" t="s">
         <v>101</v>
       </c>
@@ -3220,11 +3220,11 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="97" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="90" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3255,9 +3255,9 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="33" t="s">
         <v>137</v>
       </c>
@@ -3284,8 +3284,8 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="65" t="s">
         <v>159</v>
       </c>
@@ -3317,8 +3317,8 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="33" t="s">
         <v>115</v>
       </c>
@@ -3350,9 +3350,9 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="92" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="85" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3381,9 +3381,9 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="34" t="s">
         <v>138</v>
       </c>
@@ -3410,9 +3410,9 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="94"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="33" t="s">
         <v>139</v>
       </c>
@@ -3439,11 +3439,11 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="90" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -3472,9 +3472,9 @@
     </row>
     <row r="18" spans="1:23" ht="17.25" thickBot="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
@@ -3551,6 +3551,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B6:B18"/>
@@ -3560,11 +3565,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F4:M4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -1523,6 +1523,27 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,27 +1573,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1987,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2213,11 +2213,15 @@
       <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
       <c r="F9" s="7">
         <v>44741</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="7">
+        <v>44741</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="10" t="s">
@@ -2858,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -2952,12 +2956,12 @@
     </row>
     <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -2990,38 +2994,38 @@
     </row>
     <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="82" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="84"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91"/>
       <c r="V4" s="49" t="s">
         <v>88</v>
       </c>
@@ -3031,10 +3035,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="32" t="s">
         <v>117</v>
       </c>
@@ -3088,7 +3092,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="95" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -3123,7 +3127,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="88"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
@@ -3156,8 +3160,8 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="90" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="97" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3189,8 +3193,8 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="33" t="s">
         <v>101</v>
       </c>
@@ -3220,11 +3224,11 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="97" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3255,9 +3259,9 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="33" t="s">
         <v>137</v>
       </c>
@@ -3284,8 +3288,8 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="65" t="s">
         <v>159</v>
       </c>
@@ -3317,8 +3321,8 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="33" t="s">
         <v>115</v>
       </c>
@@ -3350,9 +3354,9 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="85" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="92" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3381,9 +3385,9 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="34" t="s">
         <v>138</v>
       </c>
@@ -3410,9 +3414,9 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="87"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="33" t="s">
         <v>139</v>
       </c>
@@ -3439,11 +3443,11 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="90" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="97" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -3472,9 +3476,9 @@
     </row>
     <row r="18" spans="1:23" ht="17.25" thickBot="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
@@ -3551,11 +3555,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B6:B18"/>
@@ -3565,6 +3564,11 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F4:M4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="165">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,6 +683,10 @@
   </si>
   <si>
     <t>2022-06-28 지유 휴가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popup구현으로 이동 가능하게</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1523,27 +1527,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1573,6 +1556,27 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1613,16 +1617,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>320675</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>79376</xdr:rowOff>
+      <xdr:rowOff>88901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>206375</xdr:rowOff>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1637,7 +1641,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8331200" y="288926"/>
+          <a:off x="8674100" y="298451"/>
           <a:ext cx="733425" cy="317499"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -1988,7 +1992,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2549,14 +2553,20 @@
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
       <c r="F24" s="7">
         <v>44742</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="7">
+        <v>44742</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="10" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="74" t="s">
@@ -2863,7 +2873,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2956,12 +2966,12 @@
     </row>
     <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -2994,38 +3004,38 @@
     </row>
     <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="89" t="s">
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="91"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="84"/>
       <c r="V4" s="49" t="s">
         <v>88</v>
       </c>
@@ -3035,10 +3045,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="32" t="s">
         <v>117</v>
       </c>
@@ -3092,7 +3102,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="88" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -3127,7 +3137,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="95"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
@@ -3160,8 +3170,8 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="90" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3193,8 +3203,8 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="33" t="s">
         <v>101</v>
       </c>
@@ -3224,11 +3234,11 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="97" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="90" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3259,9 +3269,9 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="33" t="s">
         <v>137</v>
       </c>
@@ -3288,8 +3298,8 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="65" t="s">
         <v>159</v>
       </c>
@@ -3321,8 +3331,8 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="33" t="s">
         <v>115</v>
       </c>
@@ -3354,9 +3364,9 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="92" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="85" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3385,9 +3395,9 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="34" t="s">
         <v>138</v>
       </c>
@@ -3414,9 +3424,9 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="94"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="33" t="s">
         <v>139</v>
       </c>
@@ -3443,11 +3453,11 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="90" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -3476,9 +3486,9 @@
     </row>
     <row r="18" spans="1:23" ht="17.25" thickBot="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
@@ -3555,6 +3565,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B6:B18"/>
@@ -3564,11 +3579,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F4:M4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="167">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,6 +687,14 @@
   </si>
   <si>
     <t>popup구현으로 이동 가능하게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도별카테고리 카드섹션 클릭시 사고건수 -&gt; 사망자or부상자로 바뀌기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시도별카테고리 카드섹션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1527,6 +1535,27 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1556,27 +1585,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1991,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2197,11 +2205,15 @@
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
       <c r="F8" s="7">
         <v>44742</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="7">
+        <v>44742</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="10" t="s">
@@ -2636,10 +2648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2648,7 +2660,7 @@
     <col min="2" max="2" width="11.125" style="13" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="80.5" bestFit="1" customWidth="1"/>
@@ -2856,6 +2868,28 @@
       </c>
       <c r="H9" s="24" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7">
+        <v>44742</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2966,12 +3000,12 @@
     </row>
     <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -3004,38 +3038,38 @@
     </row>
     <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="82" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="84"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91"/>
       <c r="V4" s="49" t="s">
         <v>88</v>
       </c>
@@ -3045,10 +3079,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="32" t="s">
         <v>117</v>
       </c>
@@ -3102,7 +3136,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="95" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -3137,7 +3171,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="88"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
@@ -3170,8 +3204,8 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="90" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="97" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3203,8 +3237,8 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="33" t="s">
         <v>101</v>
       </c>
@@ -3234,11 +3268,11 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="97" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3269,9 +3303,9 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="33" t="s">
         <v>137</v>
       </c>
@@ -3298,8 +3332,8 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="65" t="s">
         <v>159</v>
       </c>
@@ -3331,8 +3365,8 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="33" t="s">
         <v>115</v>
       </c>
@@ -3364,9 +3398,9 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="85" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="92" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3395,9 +3429,9 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="34" t="s">
         <v>138</v>
       </c>
@@ -3424,9 +3458,9 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="87"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="33" t="s">
         <v>139</v>
       </c>
@@ -3453,11 +3487,11 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="90" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="97" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -3486,9 +3520,9 @@
     </row>
     <row r="18" spans="1:23" ht="17.25" thickBot="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
@@ -3565,11 +3599,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B6:B18"/>
@@ -3579,6 +3608,11 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F4:M4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -695,6 +695,10 @@
   </si>
   <si>
     <t>시도별카테고리 카드섹션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-30 버튼생성후 js추가 해결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1535,27 +1539,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1585,6 +1568,27 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1999,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2651,7 +2655,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G10" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2887,7 +2891,9 @@
         <v>166</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="18"/>
+      <c r="G10" s="18" t="s">
+        <v>167</v>
+      </c>
       <c r="H10" s="18" t="s">
         <v>165</v>
       </c>
@@ -3000,12 +3006,12 @@
     </row>
     <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -3038,38 +3044,38 @@
     </row>
     <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="89" t="s">
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="91"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
+      <c r="U4" s="84"/>
       <c r="V4" s="49" t="s">
         <v>88</v>
       </c>
@@ -3079,10 +3085,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
       <c r="F5" s="32" t="s">
         <v>117</v>
       </c>
@@ -3136,7 +3142,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="88" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -3171,7 +3177,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="95"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
@@ -3204,8 +3210,8 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="90" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3237,8 +3243,8 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="33" t="s">
         <v>101</v>
       </c>
@@ -3268,11 +3274,11 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="97" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="90" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3303,9 +3309,9 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="33" t="s">
         <v>137</v>
       </c>
@@ -3332,8 +3338,8 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="65" t="s">
         <v>159</v>
       </c>
@@ -3365,8 +3371,8 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="33" t="s">
         <v>115</v>
       </c>
@@ -3398,9 +3404,9 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="92" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="85" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3429,9 +3435,9 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="34" t="s">
         <v>138</v>
       </c>
@@ -3458,9 +3464,9 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="94"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="33" t="s">
         <v>139</v>
       </c>
@@ -3487,11 +3493,11 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="90" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -3520,9 +3526,9 @@
     </row>
     <row r="18" spans="1:23" ht="17.25" thickBot="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
@@ -3599,6 +3605,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B6:B18"/>
@@ -3608,11 +3619,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F4:M4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="171">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -699,6 +699,18 @@
   </si>
   <si>
     <t>2022-06-30 버튼생성후 js추가 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발일정 issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능명세서 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel다운을 하기 위해서는 jsp로 해야함 jsp는 모든 기능이 완료 된 후로 예정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1292,7 +1304,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,6 +1551,27 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,26 +1602,8 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2003,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2259,7 +2274,7 @@
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="7">
-        <v>44746</v>
+        <v>44748</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2533,7 +2548,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="7">
-        <v>44748</v>
+        <v>44746</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2551,7 +2566,7 @@
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="7">
-        <v>44749</v>
+        <v>44747</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2652,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:H10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2664,7 +2679,7 @@
     <col min="2" max="2" width="11.125" style="13" customWidth="1"/>
     <col min="3" max="3" width="14.125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="80.5" bestFit="1" customWidth="1"/>
@@ -2890,13 +2905,42 @@
       <c r="E10" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7">
+        <v>44742</v>
+      </c>
       <c r="G10" s="18" t="s">
         <v>167</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>165</v>
       </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="17">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="7">
+        <v>44742</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7">
+        <v>44742</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="E12" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3006,12 +3050,12 @@
     </row>
     <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -3044,38 +3088,38 @@
     </row>
     <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="82" t="s">
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="83"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="84"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="91"/>
       <c r="V4" s="49" t="s">
         <v>88</v>
       </c>
@@ -3085,10 +3129,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="32" t="s">
         <v>117</v>
       </c>
@@ -3142,7 +3186,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="95" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -3177,7 +3221,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="88"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
@@ -3210,8 +3254,8 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="90" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="97" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3243,8 +3287,8 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="97"/>
       <c r="D9" s="33" t="s">
         <v>101</v>
       </c>
@@ -3274,11 +3318,11 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="95"/>
+      <c r="C10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="97" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3309,9 +3353,9 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="33" t="s">
         <v>137</v>
       </c>
@@ -3338,8 +3382,8 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="65" t="s">
         <v>159</v>
       </c>
@@ -3371,8 +3415,8 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="33" t="s">
         <v>115</v>
       </c>
@@ -3404,9 +3448,9 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="85" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="92" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3435,9 +3479,9 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="86"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="34" t="s">
         <v>138</v>
       </c>
@@ -3464,9 +3508,9 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="87"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="33" t="s">
         <v>139</v>
       </c>
@@ -3493,11 +3537,11 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="90" t="s">
+      <c r="B17" s="95"/>
+      <c r="C17" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="97" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -3526,9 +3570,9 @@
     </row>
     <row r="18" spans="1:23" ht="17.25" thickBot="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
       <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
@@ -3605,11 +3649,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B6:B18"/>
@@ -3619,6 +3658,11 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F4:M4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -686,10 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>popup구현으로 이동 가능하게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시도별카테고리 카드섹션 클릭시 사고건수 -&gt; 사망자or부상자로 바뀌기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,6 +707,10 @@
   </si>
   <si>
     <t>excel다운을 하기 위해서는 jsp로 해야함 jsp는 모든 기능이 완료 된 후로 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이동도 가능) excel 다운로드 했을때 html과 합치기!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1527,6 +1527,9 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,27 +1552,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1602,8 +1584,26 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2019,7 +2019,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2037,16 +2037,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76" t="s">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="76"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="9" t="s">
         <v>40</v>
       </c>
@@ -2084,7 +2084,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -2112,7 +2112,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="74"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="21" t="s">
         <v>42</v>
       </c>
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="75" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -2164,8 +2164,8 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="74"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="78" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2188,8 +2188,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="74"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="3" t="s">
         <v>32</v>
       </c>
@@ -2212,10 +2212,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="79" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2240,8 +2240,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="74"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
@@ -2264,8 +2264,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="74"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
@@ -2284,8 +2284,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="74"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="78" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2304,8 +2304,8 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="74"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="3" t="s">
         <v>37</v>
       </c>
@@ -2324,10 +2324,10 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="80" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2352,8 +2352,8 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="74"/>
-      <c r="B14" s="80"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
@@ -2376,8 +2376,8 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="74"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2398,8 +2398,8 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="74"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="3" t="s">
         <v>14</v>
       </c>
@@ -2422,8 +2422,8 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="74"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
@@ -2444,8 +2444,8 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="74"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
@@ -2466,8 +2466,8 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="74"/>
-      <c r="B19" s="80"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="81"/>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
@@ -2488,10 +2488,10 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="78" t="s">
         <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2514,8 +2514,8 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="74"/>
-      <c r="B21" s="77"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
@@ -2536,8 +2536,8 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="74"/>
-      <c r="B22" s="78" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="79" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2556,8 +2556,8 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="74"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2574,7 +2574,7 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="74"/>
+      <c r="A24" s="75"/>
       <c r="B24" s="22" t="s">
         <v>51</v>
       </c>
@@ -2596,11 +2596,11 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="75" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="22" t="s">
@@ -2622,7 +2622,7 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="74"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="21" t="s">
         <v>54</v>
       </c>
@@ -2686,14 +2686,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15"/>
@@ -2903,16 +2903,16 @@
         <v>44742</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7">
         <v>44742</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2923,24 +2923,24 @@
         <v>69</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="7">
         <v>44742</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7">
         <v>44742</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="E12" s="99"/>
+      <c r="E12" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3050,12 +3050,12 @@
     </row>
     <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -3088,38 +3088,38 @@
     </row>
     <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="98" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="89" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="91"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="85"/>
       <c r="V4" s="49" t="s">
         <v>88</v>
       </c>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
       <c r="F5" s="32" t="s">
         <v>117</v>
       </c>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="89" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -3221,7 +3221,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="95"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
@@ -3254,8 +3254,8 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="97" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="91" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3287,8 +3287,8 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="97"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="33" t="s">
         <v>101</v>
       </c>
@@ -3318,11 +3318,11 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="97" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="D10" s="91" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3353,9 +3353,9 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="33" t="s">
         <v>137</v>
       </c>
@@ -3382,8 +3382,8 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="97"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="65" t="s">
         <v>159</v>
       </c>
@@ -3415,8 +3415,8 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="33" t="s">
         <v>115</v>
       </c>
@@ -3448,9 +3448,9 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="92" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="86" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3479,9 +3479,9 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="93"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="87"/>
       <c r="E15" s="34" t="s">
         <v>138</v>
       </c>
@@ -3508,9 +3508,9 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="94"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="33" t="s">
         <v>139</v>
       </c>
@@ -3537,11 +3537,11 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="97" t="s">
+      <c r="B17" s="89"/>
+      <c r="C17" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="91" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -3570,9 +3570,9 @@
     </row>
     <row r="18" spans="1:23" ht="17.25" thickBot="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
@@ -3649,6 +3649,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B6:B18"/>
@@ -3658,11 +3663,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F4:M4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="개발 일정" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기능명세서!$A$2:$J$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">기능명세서!$A$2:$J$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="173">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -711,6 +711,14 @@
   </si>
   <si>
     <t>(이동도 가능) excel 다운로드 했을때 html과 합치기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 / 일반회원 join 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1304,7 +1312,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1533,6 +1541,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1552,6 +1566,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1584,26 +1619,8 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2016,10 +2033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2037,16 +2054,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="77"/>
+      <c r="F1" s="79"/>
       <c r="G1" s="9" t="s">
         <v>40</v>
       </c>
@@ -2084,7 +2101,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="77" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -2112,7 +2129,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="75"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="21" t="s">
         <v>42</v>
       </c>
@@ -2138,38 +2155,38 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>24</v>
+      <c r="A5" s="75"/>
+      <c r="B5" s="76" t="s">
+        <v>171</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4">
+        <v>172</v>
+      </c>
+      <c r="D5" s="75">
         <v>1</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>44733</v>
+        <v>44746</v>
       </c>
       <c r="G5" s="7">
-        <v>44733</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
+        <v>44746</v>
+      </c>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="75"/>
-      <c r="B6" s="78" t="s">
-        <v>29</v>
+      <c r="A6" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2178,48 +2195,44 @@
         <v>1</v>
       </c>
       <c r="F6" s="7">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="G6" s="7">
-        <v>44734</v>
+        <v>44733</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="75"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="77"/>
+      <c r="B7" s="80" t="s">
+        <v>29</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="G7" s="7">
-        <v>44735</v>
+        <v>44734</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="79" t="s">
-        <v>46</v>
-      </c>
+      <c r="A8" s="77"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -2228,134 +2241,138 @@
         <v>1</v>
       </c>
       <c r="F8" s="7">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="G8" s="7">
-        <v>44742</v>
+        <v>44735</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="10" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="75"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>46</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
       </c>
       <c r="F9" s="7">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="G9" s="7">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="75"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
       <c r="F10" s="7">
-        <v>44748</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>44741</v>
+      </c>
+      <c r="G10" s="7">
+        <v>44741</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="75"/>
-      <c r="B11" s="78" t="s">
-        <v>47</v>
-      </c>
+      <c r="A11" s="77"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="7">
-        <v>44743</v>
+        <v>44748</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="10" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="75"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="80" t="s">
+        <v>47</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="7">
-        <v>44746</v>
+        <v>44743</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="80" t="s">
-        <v>48</v>
-      </c>
+      <c r="A13" s="77"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4">
-        <v>2</v>
-      </c>
-      <c r="E13" s="11">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="7">
-        <v>44735</v>
-      </c>
-      <c r="G13" s="7">
-        <v>44736</v>
-      </c>
+        <v>44746</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="10" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="75"/>
-      <c r="B14" s="81"/>
+      <c r="A14" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>48</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -2372,60 +2389,60 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="75"/>
-      <c r="B15" s="81"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="7">
         <v>44735</v>
       </c>
       <c r="G15" s="7">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="75"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
       <c r="E16" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="7">
         <v>44735</v>
       </c>
       <c r="G16" s="7">
-        <v>44736</v>
+        <v>44735</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="10" t="s">
-        <v>75</v>
-      </c>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="75"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -2441,13 +2458,15 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="75"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -2466,10 +2485,10 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="75"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
@@ -2488,36 +2507,36 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="78" t="s">
-        <v>50</v>
-      </c>
+      <c r="A20" s="77"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
       </c>
       <c r="E20" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="7">
-        <v>44740</v>
+        <v>44735</v>
       </c>
       <c r="G20" s="7">
-        <v>44740</v>
+        <v>44736</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>50</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -2536,30 +2555,34 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="75"/>
-      <c r="B22" s="79" t="s">
-        <v>49</v>
-      </c>
+      <c r="A22" s="77"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="E22" s="11"/>
       <c r="F22" s="7">
-        <v>44746</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>44740</v>
+      </c>
+      <c r="G22" s="7">
+        <v>44740</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="75"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="81" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -2574,60 +2597,58 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="75"/>
-      <c r="B24" s="22" t="s">
-        <v>51</v>
-      </c>
+      <c r="A24" s="77"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="11">
-        <v>1</v>
-      </c>
+      <c r="E24" s="11"/>
       <c r="F24" s="7">
-        <v>44742</v>
-      </c>
-      <c r="G24" s="7">
-        <v>44742</v>
-      </c>
+        <v>44747</v>
+      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="10" t="s">
-        <v>170</v>
-      </c>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="75" t="s">
-        <v>52</v>
-      </c>
+      <c r="A25" s="77"/>
       <c r="B25" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="11">
+        <v>1</v>
+      </c>
       <c r="F25" s="7">
-        <v>44750</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>44742</v>
+      </c>
+      <c r="G25" s="7">
+        <v>44742</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="10" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="75"/>
-      <c r="B26" s="21" t="s">
-        <v>54</v>
+      <c r="A26" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -2641,23 +2662,43 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="77"/>
+      <c r="B27" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="7">
+        <v>44750</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:J24"/>
+  <autoFilter ref="A2:J25"/>
   <mergeCells count="14">
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A21:A25"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="B14:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2686,14 +2727,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15"/>
@@ -3050,12 +3091,12 @@
     </row>
     <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -3088,38 +3129,38 @@
     </row>
     <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="83" t="s">
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="85"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="94"/>
       <c r="V4" s="49" t="s">
         <v>88</v>
       </c>
@@ -3129,10 +3170,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="32" t="s">
         <v>117</v>
       </c>
@@ -3186,7 +3227,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="98" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -3221,7 +3262,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="89"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="33" t="s">
         <v>95</v>
       </c>
@@ -3254,8 +3295,8 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="91" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="100" t="s">
         <v>98</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3287,8 +3328,8 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="91"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="33" t="s">
         <v>101</v>
       </c>
@@ -3318,11 +3359,11 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="91" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="100" t="s">
         <v>113</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3353,9 +3394,9 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="33" t="s">
         <v>137</v>
       </c>
@@ -3382,8 +3423,8 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="91"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="65" t="s">
         <v>159</v>
       </c>
@@ -3415,8 +3456,8 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="91"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="33" t="s">
         <v>115</v>
       </c>
@@ -3448,9 +3489,9 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="86" t="s">
+      <c r="B14" s="98"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="95" t="s">
         <v>83</v>
       </c>
       <c r="E14" s="33" t="s">
@@ -3479,9 +3520,9 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="87"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="34" t="s">
         <v>138</v>
       </c>
@@ -3508,9 +3549,9 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="88"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="33" t="s">
         <v>139</v>
       </c>
@@ -3537,11 +3578,11 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="91" t="s">
+      <c r="B17" s="98"/>
+      <c r="C17" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="100" t="s">
         <v>105</v>
       </c>
       <c r="E17" s="33" t="s">
@@ -3570,9 +3611,9 @@
     </row>
     <row r="18" spans="1:23" ht="17.25" thickBot="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="54" t="s">
         <v>107</v>
       </c>
@@ -3649,11 +3690,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B6:B18"/>
@@ -3663,6 +3699,11 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F4:M4"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="170">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,10 +183,6 @@
   </si>
   <si>
     <t>지역별 교통사고 현황 지도 API에 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별 R 또는 JS그래프 구현(미정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -630,26 +626,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>board 수정,삭제 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>정수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>board 수정,삭제 오류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto increment 삭제 데이터 다음부터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data 삭제 후 저장 시 auto increment 삭제 데이터 다음부터 된다. 보완 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비공개글 게시여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,6 +703,10 @@
   </si>
   <si>
     <t>관리자 / 일반회원 join 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별 JS그래프 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1544,6 +1532,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,27 +1557,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1619,8 +1589,26 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1661,16 +1649,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>88901</xdr:rowOff>
+      <xdr:rowOff>98426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
+      <xdr:rowOff>225425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1685,7 +1673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8674100" y="298451"/>
+          <a:off x="9378950" y="307976"/>
           <a:ext cx="733425" cy="317499"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -2036,7 +2024,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2054,18 +2042,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A1" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79" t="s">
+      <c r="A1" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="79"/>
+      <c r="F1" s="80"/>
       <c r="G1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="35.1" customHeight="1">
@@ -2101,14 +2089,14 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="78" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4">
         <v>3</v>
@@ -2125,16 +2113,16 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="77"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2151,16 +2139,16 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="75"/>
       <c r="B5" s="76" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D5" s="75">
         <v>1</v>
@@ -2176,10 +2164,10 @@
       </c>
       <c r="H5" s="75"/>
       <c r="I5" s="75"/>
-      <c r="J5" s="102"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="78" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -2205,8 +2193,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="77"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="78"/>
+      <c r="B7" s="81" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2229,8 +2217,8 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="77"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2249,15 +2237,15 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="81" t="s">
-        <v>46</v>
+      <c r="B9" s="82" t="s">
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>36</v>
@@ -2281,8 +2269,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="77"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2305,8 +2293,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="77"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
@@ -2321,13 +2309,13 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="77"/>
-      <c r="B12" s="80" t="s">
-        <v>47</v>
+      <c r="A12" s="78"/>
+      <c r="B12" s="81" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>33</v>
@@ -2335,41 +2323,49 @@
       <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
       <c r="F12" s="7">
         <v>44743</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="7">
+        <v>44743</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="77"/>
-      <c r="B13" s="80"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="81"/>
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="4">
         <v>4</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
       <c r="F13" s="7">
         <v>44746</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="7">
+        <v>44746</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="10" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>48</v>
+      <c r="A14" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
@@ -2389,12 +2385,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="77"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2413,12 +2409,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="77"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
@@ -2439,8 +2435,8 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="77"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
@@ -2459,12 +2455,12 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="77"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
@@ -2485,8 +2481,8 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="77"/>
-      <c r="B19" s="83"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
@@ -2507,8 +2503,8 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="77"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
@@ -2529,11 +2525,11 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="80" t="s">
-        <v>50</v>
+      <c r="B21" s="81" t="s">
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>16</v>
@@ -2555,8 +2551,8 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="77"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="81"/>
       <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2577,9 +2573,9 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="77"/>
-      <c r="B23" s="81" t="s">
-        <v>49</v>
+      <c r="A23" s="78"/>
+      <c r="B23" s="82" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>18</v>
@@ -2597,8 +2593,8 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="77"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
@@ -2615,9 +2611,9 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="77"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
@@ -2637,18 +2633,18 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -2663,12 +2659,12 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="77"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -2708,10 +2704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2727,37 +2723,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
+      <c r="A1" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15"/>
       <c r="B2" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2765,25 +2761,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="7">
         <v>44735</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="7">
         <v>44735</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2791,21 +2787,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="7">
         <v>44735</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2813,25 +2809,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7">
         <v>44735</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7">
         <v>44735</v>
       </c>
       <c r="G5" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2839,22 +2835,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="7">
         <v>44736</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="7">
         <v>44736</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -2863,82 +2859,86 @@
         <v>5</v>
       </c>
       <c r="B7" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="60" t="s">
         <v>145</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>146</v>
       </c>
       <c r="D7" s="7">
         <v>44736</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F7" s="7">
         <v>44736</v>
       </c>
       <c r="G7" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>148</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="72" t="s">
         <v>150</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="7">
         <v>44736</v>
       </c>
       <c r="E8" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="18"/>
       <c r="H8" s="24" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="60">
-        <v>7</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>146</v>
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>44736</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>157</v>
+        <v>44742</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="7">
+        <v>44742</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="D10" s="7">
         <v>44742</v>
@@ -2950,38 +2950,12 @@
         <v>44742</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" s="18" t="s">
         <v>164</v>
       </c>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="17">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="7">
-        <v>44742</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="7">
-        <v>44742</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="E12" s="74"/>
+      <c r="E11" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3091,12 +3065,12 @@
     </row>
     <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87"/>
+      <c r="B3" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -3129,115 +3103,115 @@
     </row>
     <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="D4" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="E4" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="F4" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="86" t="s">
+        <v>122</v>
+      </c>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="94"/>
-      <c r="V4" s="49" t="s">
+      <c r="W4" s="50" t="s">
         <v>88</v>
-      </c>
-      <c r="W4" s="50" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
       <c r="F5" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="H5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="I5" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="J5" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="L5" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="M5" s="32" t="s">
+      <c r="N5" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="O5" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="O5" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="R5" s="32" t="s">
+      <c r="T5" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="T5" s="32" t="s">
+      <c r="U5" s="32" t="s">
         <v>128</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>129</v>
       </c>
       <c r="V5" s="39"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>112</v>
-      </c>
       <c r="D6" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="34"/>
@@ -3262,15 +3236,15 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="98"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="E7" s="33" t="s">
         <v>96</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>97</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="34"/>
@@ -3295,15 +3269,15 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="100" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="E8" s="33" t="s">
         <v>99</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>100</v>
       </c>
       <c r="F8" s="58"/>
       <c r="G8" s="58"/>
@@ -3328,13 +3302,13 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="100"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>101</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>102</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="59"/>
@@ -3359,21 +3333,21 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="100" t="s">
-        <v>113</v>
+      <c r="B10" s="92"/>
+      <c r="C10" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>112</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="69"/>
       <c r="H10" s="69"/>
       <c r="I10" s="70" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="37"/>
@@ -3394,11 +3368,11 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
       <c r="E11" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -3423,13 +3397,13 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="100"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="65" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -3437,7 +3411,7 @@
       <c r="I12" s="64"/>
       <c r="J12" s="64"/>
       <c r="K12" s="70" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L12" s="69"/>
       <c r="M12" s="69"/>
@@ -3456,20 +3430,20 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="100"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
       <c r="J13" s="70" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
@@ -3489,13 +3463,13 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="95" t="s">
-        <v>83</v>
+      <c r="B14" s="92"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="89" t="s">
+        <v>82</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -3520,11 +3494,11 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="96"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -3549,11 +3523,11 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="97"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -3578,15 +3552,15 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="100" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="100" t="s">
+      <c r="E17" s="33" t="s">
         <v>105</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>106</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -3611,11 +3585,11 @@
     </row>
     <row r="18" spans="1:23" ht="17.25" thickBot="1">
       <c r="A18" s="27"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
@@ -3642,47 +3616,47 @@
     <row r="20" spans="1:23">
       <c r="T20" s="41"/>
       <c r="U20" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V20" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="B21" s="5"/>
       <c r="T21" s="68"/>
       <c r="U21" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V21" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="17.25" thickBot="1">
       <c r="B22" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T22" s="46"/>
       <c r="U22" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V22" s="48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="B23" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="B24" s="61" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3690,6 +3664,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B6:B18"/>
@@ -3699,11 +3678,6 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="F4:M4"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +199,6 @@
   </si>
   <si>
     <t>HTML 및 CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ajax연결 포함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -707,6 +703,22 @@
   </si>
   <si>
     <t>카테고리별 JS그래프 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP연결 후 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴(지유,정수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-07-01 지유, 정수 휴가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join기능구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1300,7 +1312,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1496,119 +1508,128 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1649,16 +1670,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>98426</xdr:rowOff>
+      <xdr:rowOff>107951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>225425</xdr:rowOff>
+      <xdr:rowOff>234950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1673,8 +1694,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9378950" y="307976"/>
-          <a:ext cx="733425" cy="317499"/>
+          <a:off x="10055225" y="317501"/>
+          <a:ext cx="1276350" cy="317499"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2023,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2042,16 +2063,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" ht="45">
-      <c r="A1" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80" t="s">
+      <c r="A1" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="80"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="9" t="s">
         <v>39</v>
       </c>
@@ -2089,7 +2110,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="21" t="s">
@@ -2113,11 +2134,11 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="78"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="21" t="s">
         <v>41</v>
       </c>
@@ -2139,18 +2160,18 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="75">
+      <c r="D5" s="74">
         <v>1</v>
       </c>
       <c r="E5" s="11">
@@ -2162,12 +2183,12 @@
       <c r="G5" s="7">
         <v>44746</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="77"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="79" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -2193,8 +2214,8 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="78"/>
-      <c r="B7" s="81" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="82" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2217,8 +2238,8 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="78"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="3" t="s">
         <v>32</v>
       </c>
@@ -2237,15 +2258,15 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="82" t="s">
-        <v>45</v>
+      <c r="B9" s="83" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>36</v>
@@ -2269,8 +2290,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="78"/>
-      <c r="B10" s="82"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
@@ -2293,8 +2314,8 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="78"/>
-      <c r="B11" s="82"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
@@ -2309,13 +2330,13 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="10" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="78"/>
-      <c r="B12" s="81" t="s">
-        <v>46</v>
+      <c r="A12" s="79"/>
+      <c r="B12" s="82" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>33</v>
@@ -2337,8 +2358,8 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="78"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2357,15 +2378,15 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="78" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" s="83" t="s">
-        <v>47</v>
+      <c r="A14" s="79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>11</v>
@@ -2385,12 +2406,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="78"/>
-      <c r="B15" s="84"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2409,12 +2430,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="78"/>
-      <c r="B16" s="84"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
@@ -2435,8 +2456,8 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="78"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
@@ -2455,12 +2476,12 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="78"/>
-      <c r="B18" s="84"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
@@ -2481,8 +2502,8 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="78"/>
-      <c r="B19" s="84"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="85"/>
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
@@ -2503,8 +2524,8 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="78"/>
-      <c r="B20" s="84"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
@@ -2525,11 +2546,11 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="81" t="s">
-        <v>49</v>
+      <c r="B21" s="82" t="s">
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>16</v>
@@ -2551,8 +2572,8 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="78"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2573,9 +2594,9 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="78"/>
-      <c r="B23" s="82" t="s">
-        <v>48</v>
+      <c r="A23" s="79"/>
+      <c r="B23" s="83" t="s">
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>18</v>
@@ -2593,8 +2614,8 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="78"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="3" t="s">
         <v>19</v>
       </c>
@@ -2611,9 +2632,9 @@
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="78"/>
+      <c r="A25" s="79"/>
       <c r="B25" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>35</v>
@@ -2633,18 +2654,18 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -2659,12 +2680,12 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="78"/>
+      <c r="A27" s="79"/>
       <c r="B27" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -2723,37 +2744,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45">
-      <c r="A1" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
+      <c r="A1" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15"/>
-      <c r="B2" s="71" t="s">
-        <v>67</v>
+      <c r="B2" s="70" t="s">
+        <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="G2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="73" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2761,25 +2782,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7">
         <v>44735</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="7">
         <v>44735</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2787,21 +2808,21 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="7">
         <v>44735</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2809,25 +2830,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="7">
         <v>44735</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7">
         <v>44735</v>
       </c>
       <c r="G5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2835,22 +2856,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="7">
         <v>44736</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7">
         <v>44736</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -2858,50 +2879,50 @@
       <c r="A7" s="60">
         <v>5</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="60" t="s">
         <v>144</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>145</v>
       </c>
       <c r="D7" s="7">
         <v>44736</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7">
         <v>44736</v>
       </c>
       <c r="G7" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="24" t="s">
         <v>147</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="60">
         <v>7</v>
       </c>
-      <c r="B8" s="72" t="s">
-        <v>150</v>
+      <c r="B8" s="71" t="s">
+        <v>149</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="7">
         <v>44736</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>152</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2909,25 +2930,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7">
         <v>44742</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7">
         <v>44742</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2935,27 +2956,27 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="7">
         <v>44742</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7">
         <v>44742</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="E11" s="74"/>
+      <c r="E11" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2969,23 +2990,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH26"/>
+  <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="22" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="4.875" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="7.125" style="26" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="4.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="4" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4" style="26" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="4.875" style="26" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="6.375" style="26" bestFit="1" customWidth="1"/>
     <col min="24" max="26" width="4.875" style="26" bestFit="1" customWidth="1"/>
@@ -3065,12 +3087,12 @@
     </row>
     <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="96" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
+      <c r="B3" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -3103,115 +3125,115 @@
     </row>
     <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="D4" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="E4" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="F4" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="94" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="49" t="s">
+      <c r="W4" s="50" t="s">
         <v>87</v>
-      </c>
-      <c r="W4" s="50" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="H5" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="I5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="J5" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="L5" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" s="32" t="s">
+      <c r="N5" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="O5" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="O5" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="R5" s="32" t="s">
+      <c r="T5" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="S5" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="T5" s="32" t="s">
+      <c r="U5" s="32" t="s">
         <v>127</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>128</v>
       </c>
       <c r="V5" s="39"/>
       <c r="W5" s="51"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>111</v>
-      </c>
       <c r="D6" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="34"/>
@@ -3236,15 +3258,15 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="92"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="E7" s="33" t="s">
         <v>95</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>96</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="34"/>
@@ -3269,15 +3291,15 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="100"/>
+      <c r="C8" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="E8" s="33" t="s">
         <v>98</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>99</v>
       </c>
       <c r="F8" s="58"/>
       <c r="G8" s="58"/>
@@ -3302,13 +3324,13 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>100</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>101</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="59"/>
@@ -3333,21 +3355,21 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="94" t="s">
-        <v>112</v>
+      <c r="B10" s="100"/>
+      <c r="C10" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>111</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70" t="s">
-        <v>157</v>
+        <v>134</v>
+      </c>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="37"/>
@@ -3368,17 +3390,17 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="64"/>
       <c r="I11" s="64"/>
-      <c r="J11" s="69"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34"/>
@@ -3397,62 +3419,58 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>156</v>
+      <c r="B12" s="100"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="78" t="s">
+        <v>172</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="64"/>
       <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="70" t="s">
-        <v>157</v>
-      </c>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
       <c r="U12" s="34"/>
-      <c r="V12" s="36">
-        <v>0</v>
-      </c>
+      <c r="V12" s="36"/>
       <c r="W12" s="52"/>
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>140</v>
+      <c r="B13" s="100"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>155</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
       <c r="U13" s="34"/>
@@ -3463,21 +3481,23 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="89" t="s">
-        <v>82</v>
+      <c r="B14" s="100"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="33" t="s">
+        <v>113</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>139</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
       <c r="O14" s="34"/>
@@ -3494,25 +3514,27 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="34" t="s">
-        <v>137</v>
+      <c r="B15" s="100"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
       <c r="U15" s="34"/>
@@ -3523,11 +3545,11 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="33" t="s">
-        <v>138</v>
+      <c r="B16" s="100"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -3536,12 +3558,12 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="34"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="64"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
       <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
       <c r="U16" s="34"/>
@@ -3552,132 +3574,163 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="94" t="s">
-        <v>104</v>
-      </c>
+      <c r="B17" s="100"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="99"/>
       <c r="E17" s="33" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="34"/>
       <c r="I17" s="34"/>
-      <c r="J17" s="38"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="34"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="34"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
       <c r="V17" s="36">
         <v>0</v>
       </c>
       <c r="W17" s="52"/>
     </row>
-    <row r="18" spans="1:23" ht="17.25" thickBot="1">
+    <row r="18" spans="1:23">
       <c r="A18" s="27"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="56">
+      <c r="B18" s="100"/>
+      <c r="C18" s="102" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="102" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="36">
         <v>0</v>
       </c>
-      <c r="W18" s="57"/>
-    </row>
-    <row r="19" spans="1:23" ht="17.25" thickBot="1"/>
-    <row r="20" spans="1:23">
-      <c r="T20" s="41"/>
-      <c r="U20" s="42" t="s">
+      <c r="W18" s="52"/>
+    </row>
+    <row r="19" spans="1:23" ht="17.25" thickBot="1">
+      <c r="A19" s="27"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="56">
+        <v>0</v>
+      </c>
+      <c r="W19" s="57"/>
+    </row>
+    <row r="20" spans="1:23" ht="17.25" thickBot="1"/>
+    <row r="21" spans="1:23">
+      <c r="T21" s="41"/>
+      <c r="U21" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="V21" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="B22" s="5"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="V22" s="45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="17.25" thickBot="1">
+      <c r="B23" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="T23" s="46"/>
+      <c r="U23" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="V20" s="43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="B21" s="5"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="V21" s="45" t="s">
+      <c r="V23" s="48" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="17.25" thickBot="1">
-      <c r="B22" s="23" t="s">
+    <row r="24" spans="1:23">
+      <c r="B24" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="T22" s="46"/>
-      <c r="U22" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="V22" s="48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="B23" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="B24" s="61" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="25" spans="1:23">
-      <c r="B25" s="63" t="s">
-        <v>159</v>
+      <c r="B25" s="61" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:23">
-      <c r="B26" s="5"/>
+      <c r="B26" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="B27" s="77" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="N4:U4"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="B6:B19"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="N4:U4"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="B6:B18"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/교사팀_기능명세서.xlsx
+++ b/교사팀_기능명세서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21\Desktop\car\VIEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dw-012\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15615"/>
   </bookViews>
   <sheets>
     <sheet name="기능명세서" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="169">
   <si>
     <t>대분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,22 +623,6 @@
   </si>
   <si>
     <t>board 수정,삭제 오류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비공개글 게시여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비공개글 게시 방법 및 수정/삭제 안되게 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1574,27 +1558,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="17" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,6 +1593,27 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1670,16 +1654,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>107951</xdr:rowOff>
+      <xdr:rowOff>41276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>234950</xdr:rowOff>
+      <xdr:rowOff>168275</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1694,7 +1678,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10055225" y="317501"/>
+          <a:off x="11236325" y="250826"/>
           <a:ext cx="1276350" cy="317499"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -2044,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5"/>
@@ -2166,10 +2150,10 @@
     <row r="5" spans="1:10">
       <c r="A5" s="74"/>
       <c r="B5" s="75" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D5" s="74">
         <v>1</v>
@@ -2322,15 +2306,19 @@
       <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
       <c r="F11" s="7">
         <v>44748</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="7">
+        <v>44750</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2378,7 +2366,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2604,11 +2592,15 @@
       <c r="D23" s="4">
         <v>1</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="11">
+        <v>1</v>
+      </c>
       <c r="F23" s="7">
         <v>44747</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="7">
+        <v>44747</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="3"/>
@@ -2622,11 +2614,15 @@
       <c r="D24" s="4">
         <v>1</v>
       </c>
-      <c r="E24" s="11"/>
+      <c r="E24" s="11">
+        <v>1</v>
+      </c>
       <c r="F24" s="7">
         <v>44747</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="7">
+        <v>44747</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="3"/>
@@ -2654,7 +2650,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2670,11 +2666,15 @@
       <c r="D26" s="4">
         <v>1</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="11">
+        <v>1</v>
+      </c>
       <c r="F26" s="7">
         <v>44750</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="7">
+        <v>44750</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2690,11 +2690,15 @@
       <c r="D27" s="4">
         <v>1</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="11">
+        <v>1</v>
+      </c>
       <c r="F27" s="7">
         <v>44750</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="7">
+        <v>44750</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -2725,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2819,7 +2823,9 @@
       <c r="E4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>44750</v>
+      </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18" t="s">
         <v>65</v>
@@ -2902,38 +2908,40 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="60">
-        <v>7</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>144</v>
+      <c r="A8" s="17">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="D8" s="7">
-        <v>44736</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>152</v>
+        <v>44742</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="7">
+        <v>44742</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="D9" s="7">
         <v>44742</v>
@@ -2945,38 +2953,12 @@
         <v>44742</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H9" s="18" t="s">
         <v>159</v>
       </c>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="17">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="7">
-        <v>44742</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="7">
-        <v>44742</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="E11" s="73"/>
+      <c r="E10" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2992,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -3087,12 +3069,12 @@
     </row>
     <row r="3" spans="1:34" ht="32.25" thickBot="1">
       <c r="A3" s="27"/>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="101"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
@@ -3125,38 +3107,38 @@
     </row>
     <row r="4" spans="1:34" ht="27">
       <c r="A4" s="27"/>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="102" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="94" t="s">
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="87" t="s">
         <v>121</v>
       </c>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="96"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="89"/>
       <c r="V4" s="49" t="s">
         <v>86</v>
       </c>
@@ -3166,10 +3148,10 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="27"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="32" t="s">
         <v>115</v>
       </c>
@@ -3223,7 +3205,7 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="27"/>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="93" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="33" t="s">
@@ -3258,7 +3240,7 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="27"/>
-      <c r="B7" s="100"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="33" t="s">
         <v>93</v>
       </c>
@@ -3291,8 +3273,8 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="27"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="102" t="s">
+      <c r="B8" s="93"/>
+      <c r="C8" s="95" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -3324,8 +3306,8 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="27"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="102"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="33" t="s">
         <v>99</v>
       </c>
@@ -3355,11 +3337,11 @@
     </row>
     <row r="10" spans="1:34">
       <c r="A10" s="27"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="97" t="s">
         <v>111</v>
       </c>
       <c r="E10" s="33" t="s">
@@ -3369,7 +3351,7 @@
       <c r="G10" s="68"/>
       <c r="H10" s="68"/>
       <c r="I10" s="69" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="37"/>
@@ -3390,9 +3372,9 @@
     </row>
     <row r="11" spans="1:34">
       <c r="A11" s="27"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="105"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="33" t="s">
         <v>135</v>
       </c>
@@ -3419,11 +3401,11 @@
     </row>
     <row r="12" spans="1:34">
       <c r="A12" s="27"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="105"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="98"/>
       <c r="E12" s="78" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -3446,13 +3428,13 @@
     </row>
     <row r="13" spans="1:34">
       <c r="A13" s="27"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="102"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -3460,12 +3442,12 @@
       <c r="I13" s="64"/>
       <c r="J13" s="64"/>
       <c r="K13" s="69" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L13" s="68"/>
       <c r="M13" s="68"/>
       <c r="N13" s="69" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O13" s="59"/>
       <c r="P13" s="59"/>
@@ -3481,8 +3463,8 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="27"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="102"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="33" t="s">
         <v>113</v>
       </c>
@@ -3494,7 +3476,7 @@
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
       <c r="J14" s="69" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K14" s="34"/>
       <c r="L14" s="34"/>
@@ -3514,9 +3496,9 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="27"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="97" t="s">
+      <c r="B15" s="93"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="90" t="s">
         <v>81</v>
       </c>
       <c r="E15" s="33" t="s">
@@ -3545,9 +3527,9 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="27"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="98"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="34" t="s">
         <v>136</v>
       </c>
@@ -3574,9 +3556,9 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" s="27"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="99"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="33" t="s">
         <v>137</v>
       </c>
@@ -3603,11 +3585,11 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="27"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="102" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="95" t="s">
         <v>103</v>
       </c>
       <c r="E18" s="33" t="s">
@@ -3636,9 +3618,9 @@
     </row>
     <row r="19" spans="1:23" ht="17.25" thickBot="1">
       <c r="A19" s="27"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="54" t="s">
         <v>105</v>
       </c>
@@ -3702,21 +3684,26 @@
     </row>
     <row r="25" spans="1:23">
       <c r="B25" s="61" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="B26" s="63" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="B27" s="77" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
     <mergeCell ref="N4:U4"/>
     <mergeCell ref="D15:D17"/>
     <mergeCell ref="B6:B19"/>
@@ -3726,11 +3713,6 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
